--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99793C53-2C0C-406E-84C1-65B8D62C7296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D360B2-9D1D-4267-BBAA-4BDC89965459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FBE</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>6e5128f496a37de4a86ea8368dddeb39266f4748</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>301f4a99f2a4b466e3f5ee0a1938d6a2cde1955a</t>
   </si>
 </sst>
 </file>
@@ -430,64 +436,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -509,22 +521,25 @@
       <c r="G3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>137</v>
+      </c>
+      <c r="B4">
         <v>143</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>141</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>129</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>139</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
       </c>
       <c r="F4">
         <v>133</v>
@@ -532,19 +547,22 @@
       <c r="G4">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>113</v>
+      </c>
+      <c r="B5">
         <v>106</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>113</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>106</v>
-      </c>
-      <c r="D5">
-        <v>102</v>
       </c>
       <c r="E5">
         <v>102</v>
@@ -555,42 +573,48 @@
       <c r="G5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>83</v>
       </c>
       <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>83</v>
-      </c>
-      <c r="E6">
-        <v>80</v>
       </c>
       <c r="F6">
         <v>80</v>
       </c>
       <c r="G6">
+        <v>80</v>
+      </c>
+      <c r="H6">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7">
         <v>85</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>88</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>87</v>
-      </c>
-      <c r="D7">
-        <v>85</v>
       </c>
       <c r="E7">
         <v>85</v>
@@ -601,22 +625,25 @@
       <c r="G7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
         <v>82</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>91</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>77</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>79</v>
-      </c>
-      <c r="E8">
-        <v>77</v>
       </c>
       <c r="F8">
         <v>77</v>
@@ -624,16 +651,19 @@
       <c r="G8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>94</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -647,19 +677,22 @@
       <c r="G9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>69</v>
       </c>
       <c r="C10">
+        <v>69</v>
+      </c>
+      <c r="D10">
         <v>68</v>
-      </c>
-      <c r="D10">
-        <v>67</v>
       </c>
       <c r="E10">
         <v>67</v>
@@ -670,10 +703,13 @@
       <c r="G10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>93</v>
@@ -693,19 +729,22 @@
       <c r="G11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B12">
         <v>110</v>
       </c>
       <c r="C12">
+        <v>110</v>
+      </c>
+      <c r="D12">
         <v>103</v>
-      </c>
-      <c r="D12">
-        <v>110</v>
       </c>
       <c r="E12">
         <v>110</v>
@@ -716,45 +755,51 @@
       <c r="G12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13">
         <v>116</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>123</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>116</v>
-      </c>
-      <c r="D13">
-        <v>123</v>
       </c>
       <c r="E13">
         <v>123</v>
       </c>
       <c r="F13">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G13">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>64</v>
       </c>
       <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
         <v>71</v>
-      </c>
-      <c r="C14">
-        <v>55</v>
       </c>
       <c r="D14">
         <v>55</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>70</v>
@@ -762,13 +807,16 @@
       <c r="G14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>85</v>
+      </c>
+      <c r="B15">
         <v>89</v>
-      </c>
-      <c r="B15">
-        <v>77</v>
       </c>
       <c r="C15">
         <v>77</v>
@@ -777,30 +825,33 @@
         <v>77</v>
       </c>
       <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
         <v>83</v>
-      </c>
-      <c r="F15">
-        <v>80</v>
       </c>
       <c r="G15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16">
         <v>105</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>108</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>96</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>105</v>
-      </c>
-      <c r="E16">
-        <v>96</v>
       </c>
       <c r="F16">
         <v>96</v>
@@ -808,8 +859,11 @@
       <c r="G16">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>74</v>
       </c>
@@ -823,7 +877,7 @@
         <v>74</v>
       </c>
       <c r="E17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <v>75</v>
@@ -831,10 +885,13 @@
       <c r="G17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>91</v>
@@ -843,21 +900,24 @@
         <v>91</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>82</v>
       </c>
       <c r="F18">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -877,13 +937,16 @@
       <c r="G19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>37</v>
       </c>
       <c r="B20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>38</v>
@@ -900,10 +963,13 @@
       <c r="G20">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>33</v>
@@ -923,16 +989,19 @@
       <c r="G21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>48</v>
+      </c>
+      <c r="B22">
         <v>51</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>49</v>
-      </c>
-      <c r="C22">
-        <v>52</v>
       </c>
       <c r="D22">
         <v>52</v>
@@ -946,8 +1015,11 @@
       <c r="G22">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>14</v>
       </c>
@@ -969,13 +1041,16 @@
       <c r="G23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>65</v>
+      </c>
+      <c r="B24">
         <v>58</v>
-      </c>
-      <c r="B24">
-        <v>57</v>
       </c>
       <c r="C24">
         <v>57</v>
@@ -987,18 +1062,21 @@
         <v>57</v>
       </c>
       <c r="F24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>66</v>
+      </c>
+      <c r="B25">
         <v>70</v>
-      </c>
-      <c r="B25">
-        <v>63</v>
       </c>
       <c r="C25">
         <v>63</v>
@@ -1015,10 +1093,13 @@
       <c r="G25">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>29</v>
@@ -1038,8 +1119,11 @@
       <c r="G26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>29</v>
       </c>
@@ -1061,10 +1145,13 @@
       <c r="G27">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>69</v>
@@ -1079,38 +1166,44 @@
         <v>69</v>
       </c>
       <c r="F28">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G28">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>46</v>
       </c>
       <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
         <v>50</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>46</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>50</v>
-      </c>
-      <c r="F29">
-        <v>47</v>
       </c>
       <c r="G29">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>46</v>
@@ -1119,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>48</v>
@@ -1130,16 +1223,19 @@
       <c r="G30">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>97</v>
       </c>
       <c r="B31">
+        <v>97</v>
+      </c>
+      <c r="C31">
         <v>94</v>
-      </c>
-      <c r="C31">
-        <v>97</v>
       </c>
       <c r="D31">
         <v>97</v>
@@ -1148,21 +1244,24 @@
         <v>97</v>
       </c>
       <c r="F31">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G31">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>59</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>60</v>
@@ -1174,21 +1273,24 @@
         <v>60</v>
       </c>
       <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>71</v>
+      </c>
+      <c r="B33">
         <v>73</v>
-      </c>
-      <c r="B33">
-        <v>74</v>
       </c>
       <c r="C33">
         <v>74</v>
       </c>
       <c r="D33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>73</v>
@@ -1197,18 +1299,21 @@
         <v>73</v>
       </c>
       <c r="G33">
+        <v>73</v>
+      </c>
+      <c r="H33">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>58</v>
+      </c>
+      <c r="B34">
         <v>65</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>62</v>
-      </c>
-      <c r="C34">
-        <v>65</v>
       </c>
       <c r="D34">
         <v>65</v>
@@ -1222,8 +1327,11 @@
       <c r="G34">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>46</v>
       </c>
@@ -1231,10 +1339,10 @@
         <v>46</v>
       </c>
       <c r="C35">
+        <v>46</v>
+      </c>
+      <c r="D35">
         <v>45</v>
-      </c>
-      <c r="D35">
-        <v>46</v>
       </c>
       <c r="E35">
         <v>46</v>
@@ -1245,22 +1353,25 @@
       <c r="G35">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>132</v>
+      </c>
+      <c r="B36">
         <v>134</v>
-      </c>
-      <c r="B36">
-        <v>135</v>
       </c>
       <c r="C36">
         <v>135</v>
       </c>
       <c r="D36">
+        <v>135</v>
+      </c>
+      <c r="E36">
         <v>134</v>
-      </c>
-      <c r="E36">
-        <v>130</v>
       </c>
       <c r="F36">
         <v>130</v>
@@ -1268,65 +1379,74 @@
       <c r="G36">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>156</v>
+      </c>
+      <c r="B37">
         <v>150</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>161</v>
-      </c>
-      <c r="C37">
-        <v>146</v>
       </c>
       <c r="D37">
         <v>146</v>
       </c>
       <c r="E37">
+        <v>146</v>
+      </c>
+      <c r="F37">
         <v>140</v>
-      </c>
-      <c r="F37">
-        <v>144</v>
       </c>
       <c r="G37">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B38">
         <v>88</v>
       </c>
       <c r="C38">
+        <v>88</v>
+      </c>
+      <c r="D38">
         <v>85</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>86</v>
-      </c>
-      <c r="E38">
-        <v>80</v>
       </c>
       <c r="F38">
         <v>80</v>
       </c>
       <c r="G38">
+        <v>80</v>
+      </c>
+      <c r="H38">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B39">
         <v>93</v>
       </c>
       <c r="C39">
+        <v>93</v>
+      </c>
+      <c r="D39">
         <v>98</v>
-      </c>
-      <c r="D39">
-        <v>93</v>
       </c>
       <c r="E39">
         <v>93</v>
@@ -1337,22 +1457,25 @@
       <c r="G39">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40">
         <v>96</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>106</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>90</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>96</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
       </c>
       <c r="F40">
         <v>90</v>
@@ -1360,22 +1483,25 @@
       <c r="G40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>91</v>
       </c>
       <c r="B41">
+        <v>91</v>
+      </c>
+      <c r="C41">
         <v>87</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>82</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>83</v>
-      </c>
-      <c r="E41">
-        <v>82</v>
       </c>
       <c r="F41">
         <v>82</v>
@@ -1383,10 +1509,13 @@
       <c r="G41">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>91</v>
@@ -1401,27 +1530,30 @@
         <v>91</v>
       </c>
       <c r="F42">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>125</v>
       </c>
       <c r="C43">
+        <v>125</v>
+      </c>
+      <c r="D43">
         <v>122</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>116</v>
-      </c>
-      <c r="E43">
-        <v>122</v>
       </c>
       <c r="F43">
         <v>122</v>
@@ -1429,22 +1561,25 @@
       <c r="G43">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>103</v>
       </c>
       <c r="C44">
+        <v>103</v>
+      </c>
+      <c r="D44">
         <v>111</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>103</v>
-      </c>
-      <c r="E44">
-        <v>113</v>
       </c>
       <c r="F44">
         <v>113</v>
@@ -1452,19 +1587,22 @@
       <c r="G44">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>133</v>
+      </c>
+      <c r="B45">
         <v>123</v>
-      </c>
-      <c r="B45">
-        <v>130</v>
       </c>
       <c r="C45">
         <v>130</v>
       </c>
       <c r="D45">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E45">
         <v>128</v>
@@ -1475,22 +1613,25 @@
       <c r="G45">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>137</v>
+      </c>
+      <c r="B46">
         <v>122</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>121</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>128</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>122</v>
-      </c>
-      <c r="E46">
-        <v>125</v>
       </c>
       <c r="F46">
         <v>125</v>
@@ -1498,22 +1639,25 @@
       <c r="G46">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>104</v>
+      </c>
+      <c r="B47">
         <v>100</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>112</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>94</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>104</v>
-      </c>
-      <c r="E47">
-        <v>98</v>
       </c>
       <c r="F47">
         <v>98</v>
@@ -1521,22 +1665,25 @@
       <c r="G47">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>136</v>
+      </c>
+      <c r="B48">
         <v>148</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>146</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>115</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>111</v>
-      </c>
-      <c r="E48">
-        <v>113</v>
       </c>
       <c r="F48">
         <v>113</v>
@@ -1544,19 +1691,22 @@
       <c r="G48">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>120</v>
+      </c>
+      <c r="B49">
         <v>121</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>119</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>120</v>
-      </c>
-      <c r="D49">
-        <v>121</v>
       </c>
       <c r="E49">
         <v>121</v>
@@ -1567,22 +1717,25 @@
       <c r="G49">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
         <v>134</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>137</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>136</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>143</v>
-      </c>
-      <c r="E50">
-        <v>134</v>
       </c>
       <c r="F50">
         <v>134</v>
@@ -1590,10 +1743,13 @@
       <c r="G50">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B51">
         <v>105</v>
@@ -1605,53 +1761,59 @@
         <v>105</v>
       </c>
       <c r="E51">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F51">
         <v>104</v>
       </c>
       <c r="G51">
+        <v>104</v>
+      </c>
+      <c r="H51">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52">
         <v>139</v>
       </c>
       <c r="C52">
+        <v>139</v>
+      </c>
+      <c r="D52">
         <v>124</v>
-      </c>
-      <c r="D52">
-        <v>138</v>
       </c>
       <c r="E52">
         <v>138</v>
       </c>
       <c r="F52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G52">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>128</v>
       </c>
       <c r="C53">
+        <v>128</v>
+      </c>
+      <c r="D53">
         <v>137</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>123</v>
-      </c>
-      <c r="E53">
-        <v>139</v>
       </c>
       <c r="F53">
         <v>139</v>
@@ -1659,22 +1821,25 @@
       <c r="G53">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>195</v>
+      </c>
+      <c r="B54">
         <v>185</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>184</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>179</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>175</v>
-      </c>
-      <c r="E54">
-        <v>180</v>
       </c>
       <c r="F54">
         <v>180</v>
@@ -1682,22 +1847,25 @@
       <c r="G54">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>152</v>
       </c>
       <c r="C55">
+        <v>152</v>
+      </c>
+      <c r="D55">
         <v>149</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>152</v>
-      </c>
-      <c r="E55">
-        <v>155</v>
       </c>
       <c r="F55">
         <v>155</v>
@@ -1705,19 +1873,22 @@
       <c r="G55">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>108</v>
+      </c>
+      <c r="B56">
         <v>107</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>106</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>101</v>
-      </c>
-      <c r="D56">
-        <v>106</v>
       </c>
       <c r="E56">
         <v>106</v>
@@ -1728,68 +1899,77 @@
       <c r="G56">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>121</v>
+      </c>
+      <c r="B57">
         <v>123</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>125</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>124</v>
-      </c>
-      <c r="D57">
-        <v>123</v>
       </c>
       <c r="E57">
         <v>123</v>
       </c>
       <c r="F57">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G57">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>115</v>
+      </c>
+      <c r="B58">
         <v>122</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>121</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>108</v>
-      </c>
-      <c r="D58">
-        <v>113</v>
       </c>
       <c r="E58">
         <v>113</v>
       </c>
       <c r="F58">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G58">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59">
         <v>142</v>
       </c>
       <c r="C59">
+        <v>142</v>
+      </c>
+      <c r="D59">
         <v>135</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>121</v>
-      </c>
-      <c r="E59">
-        <v>120</v>
       </c>
       <c r="F59">
         <v>120</v>
@@ -1797,8 +1977,11 @@
       <c r="G59">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>144</v>
       </c>
@@ -1812,7 +1995,7 @@
         <v>144</v>
       </c>
       <c r="E60">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F60">
         <v>142</v>
@@ -1820,33 +2003,39 @@
       <c r="G60">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>AVERAGE(A3:A60)</f>
+        <v>93.396551724137893</v>
+      </c>
+      <c r="B61">
+        <f>AVERAGE(B3:B60)</f>
         <v>92.068965517241381</v>
       </c>
-      <c r="B61">
-        <f t="shared" ref="B61:G61" si="0">AVERAGE(B3:B60)</f>
+      <c r="C61">
+        <f t="shared" ref="C61:H61" si="0">AVERAGE(C3:C60)</f>
         <v>92.793103448275858</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>89.827586206896555</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>90.120689655172413</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <f t="shared" si="0"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="0"/>
         <v>90.224137931034477</v>
       </c>

--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D360B2-9D1D-4267-BBAA-4BDC89965459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30917CA8-952D-48EE-B63F-907553C39D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FBE</t>
   </si>
@@ -85,13 +85,24 @@
   <si>
     <t>301f4a99f2a4b466e3f5ee0a1938d6a2cde1955a</t>
   </si>
+  <si>
+    <t>Blueprint index</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,10 +118,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -119,9 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,72 +459,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>16</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>16</v>
@@ -524,25 +552,28 @@
       <c r="H3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="I3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>137</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>143</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>141</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>129</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>139</v>
-      </c>
-      <c r="F4">
-        <v>133</v>
       </c>
       <c r="G4">
         <v>133</v>
@@ -550,22 +581,25 @@
       <c r="H4">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <v>113</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>106</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>113</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>106</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
       </c>
       <c r="F5">
         <v>102</v>
@@ -576,48 +610,54 @@
       <c r="H5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="I5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>90</v>
-      </c>
-      <c r="B6">
-        <v>83</v>
       </c>
       <c r="C6">
         <v>83</v>
       </c>
       <c r="D6">
+        <v>83</v>
+      </c>
+      <c r="E6">
         <v>80</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>83</v>
-      </c>
-      <c r="F6">
-        <v>80</v>
       </c>
       <c r="G6">
         <v>80</v>
       </c>
       <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>84</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>85</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>88</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>87</v>
-      </c>
-      <c r="E7">
-        <v>85</v>
       </c>
       <c r="F7">
         <v>85</v>
@@ -628,25 +668,28 @@
       <c r="H7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>82</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>91</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>77</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>79</v>
-      </c>
-      <c r="F8">
-        <v>77</v>
       </c>
       <c r="G8">
         <v>77</v>
@@ -654,19 +697,22 @@
       <c r="H8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9">
         <v>96</v>
-      </c>
-      <c r="B9">
-        <v>94</v>
       </c>
       <c r="C9">
         <v>94</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -680,22 +726,25 @@
       <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10">
         <v>82</v>
-      </c>
-      <c r="B10">
-        <v>69</v>
       </c>
       <c r="C10">
         <v>69</v>
       </c>
       <c r="D10">
+        <v>69</v>
+      </c>
+      <c r="E10">
         <v>68</v>
-      </c>
-      <c r="E10">
-        <v>67</v>
       </c>
       <c r="F10">
         <v>67</v>
@@ -706,13 +755,16 @@
       <c r="H10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>95</v>
-      </c>
-      <c r="B11">
-        <v>93</v>
       </c>
       <c r="C11">
         <v>93</v>
@@ -732,22 +784,25 @@
       <c r="H11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>126</v>
-      </c>
-      <c r="B12">
-        <v>110</v>
       </c>
       <c r="C12">
         <v>110</v>
       </c>
       <c r="D12">
+        <v>110</v>
+      </c>
+      <c r="E12">
         <v>103</v>
-      </c>
-      <c r="E12">
-        <v>110</v>
       </c>
       <c r="F12">
         <v>110</v>
@@ -758,51 +813,57 @@
       <c r="H12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13">
         <v>112</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>116</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>123</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>116</v>
-      </c>
-      <c r="E13">
-        <v>123</v>
       </c>
       <c r="F13">
         <v>123</v>
       </c>
       <c r="G13">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>64</v>
+      <c r="I13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
       </c>
       <c r="B14">
         <v>64</v>
       </c>
       <c r="C14">
+        <v>64</v>
+      </c>
+      <c r="D14">
         <v>71</v>
-      </c>
-      <c r="D14">
-        <v>55</v>
       </c>
       <c r="E14">
         <v>55</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>70</v>
@@ -810,16 +871,19 @@
       <c r="H14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15">
         <v>85</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>89</v>
-      </c>
-      <c r="C15">
-        <v>77</v>
       </c>
       <c r="D15">
         <v>77</v>
@@ -828,33 +892,36 @@
         <v>77</v>
       </c>
       <c r="F15">
+        <v>77</v>
+      </c>
+      <c r="G15">
         <v>83</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16">
         <v>101</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>105</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>108</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>96</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>105</v>
-      </c>
-      <c r="F16">
-        <v>96</v>
       </c>
       <c r="G16">
         <v>96</v>
@@ -862,10 +929,13 @@
       <c r="H16">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>74</v>
+      <c r="I16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
       </c>
       <c r="B17">
         <v>74</v>
@@ -880,7 +950,7 @@
         <v>74</v>
       </c>
       <c r="F17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>75</v>
@@ -888,13 +958,16 @@
       <c r="H17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18">
         <v>83</v>
-      </c>
-      <c r="B18">
-        <v>91</v>
       </c>
       <c r="C18">
         <v>91</v>
@@ -903,24 +976,27 @@
         <v>91</v>
       </c>
       <c r="E18">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F18">
         <v>82</v>
       </c>
       <c r="G18">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="I18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>28</v>
-      </c>
-      <c r="B19">
-        <v>32</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -940,16 +1016,19 @@
       <c r="H19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>37</v>
+      <c r="I19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
       </c>
       <c r="B20">
         <v>37</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>38</v>
@@ -966,13 +1045,16 @@
       <c r="H20">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="I20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>32</v>
-      </c>
-      <c r="B21">
-        <v>33</v>
       </c>
       <c r="C21">
         <v>33</v>
@@ -992,19 +1074,22 @@
       <c r="H21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="I21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22">
         <v>48</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>51</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>49</v>
-      </c>
-      <c r="D22">
-        <v>52</v>
       </c>
       <c r="E22">
         <v>52</v>
@@ -1018,10 +1103,13 @@
       <c r="H22">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>14</v>
+      <c r="I22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1044,16 +1132,19 @@
       <c r="H23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24">
         <v>65</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>58</v>
-      </c>
-      <c r="C24">
-        <v>57</v>
       </c>
       <c r="D24">
         <v>57</v>
@@ -1065,21 +1156,24 @@
         <v>57</v>
       </c>
       <c r="G24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25">
         <v>66</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>70</v>
-      </c>
-      <c r="C25">
-        <v>63</v>
       </c>
       <c r="D25">
         <v>63</v>
@@ -1096,13 +1190,16 @@
       <c r="H25">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26">
         <v>33</v>
-      </c>
-      <c r="B26">
-        <v>29</v>
       </c>
       <c r="C26">
         <v>29</v>
@@ -1122,10 +1219,13 @@
       <c r="H26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I26">
         <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -1148,13 +1248,16 @@
       <c r="H27">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="I27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28">
         <v>70</v>
-      </c>
-      <c r="B28">
-        <v>69</v>
       </c>
       <c r="C28">
         <v>69</v>
@@ -1169,44 +1272,50 @@
         <v>69</v>
       </c>
       <c r="G28">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H28">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29">
         <v>58</v>
-      </c>
-      <c r="B29">
-        <v>46</v>
       </c>
       <c r="C29">
         <v>46</v>
       </c>
       <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29">
         <v>50</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>46</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>50</v>
-      </c>
-      <c r="G29">
-        <v>47</v>
       </c>
       <c r="H29">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I29">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30">
         <v>45</v>
-      </c>
-      <c r="B30">
-        <v>46</v>
       </c>
       <c r="C30">
         <v>46</v>
@@ -1215,7 +1324,7 @@
         <v>46</v>
       </c>
       <c r="E30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30">
         <v>48</v>
@@ -1226,19 +1335,22 @@
       <c r="H30">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>97</v>
+      <c r="I30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
       </c>
       <c r="B31">
         <v>97</v>
       </c>
       <c r="C31">
+        <v>97</v>
+      </c>
+      <c r="D31">
         <v>94</v>
-      </c>
-      <c r="D31">
-        <v>97</v>
       </c>
       <c r="E31">
         <v>97</v>
@@ -1247,24 +1359,27 @@
         <v>97</v>
       </c>
       <c r="G31">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32">
         <v>70</v>
-      </c>
-      <c r="B32">
-        <v>59</v>
       </c>
       <c r="C32">
         <v>59</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>60</v>
@@ -1276,24 +1391,27 @@
         <v>60</v>
       </c>
       <c r="H32">
+        <v>60</v>
+      </c>
+      <c r="I32">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <v>71</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>73</v>
-      </c>
-      <c r="C33">
-        <v>74</v>
       </c>
       <c r="D33">
         <v>74</v>
       </c>
       <c r="E33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F33">
         <v>73</v>
@@ -1302,21 +1420,24 @@
         <v>73</v>
       </c>
       <c r="H33">
+        <v>73</v>
+      </c>
+      <c r="I33">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34">
         <v>58</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>65</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>62</v>
-      </c>
-      <c r="D34">
-        <v>65</v>
       </c>
       <c r="E34">
         <v>65</v>
@@ -1330,10 +1451,13 @@
       <c r="H34">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>46</v>
+      <c r="I34">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
       </c>
       <c r="B35">
         <v>46</v>
@@ -1342,10 +1466,10 @@
         <v>46</v>
       </c>
       <c r="D35">
+        <v>46</v>
+      </c>
+      <c r="E35">
         <v>45</v>
-      </c>
-      <c r="E35">
-        <v>46</v>
       </c>
       <c r="F35">
         <v>46</v>
@@ -1356,25 +1480,28 @@
       <c r="H35">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="I35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36">
         <v>132</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>134</v>
-      </c>
-      <c r="C36">
-        <v>135</v>
       </c>
       <c r="D36">
         <v>135</v>
       </c>
       <c r="E36">
+        <v>135</v>
+      </c>
+      <c r="F36">
         <v>134</v>
-      </c>
-      <c r="F36">
-        <v>130</v>
       </c>
       <c r="G36">
         <v>130</v>
@@ -1382,74 +1509,83 @@
       <c r="H36">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I36">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>34</v>
+      </c>
+      <c r="B37">
         <v>156</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>150</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>161</v>
-      </c>
-      <c r="D37">
-        <v>146</v>
       </c>
       <c r="E37">
         <v>146</v>
       </c>
       <c r="F37">
+        <v>146</v>
+      </c>
+      <c r="G37">
         <v>140</v>
-      </c>
-      <c r="G37">
-        <v>144</v>
       </c>
       <c r="H37">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="I37">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38">
         <v>74</v>
-      </c>
-      <c r="B38">
-        <v>88</v>
       </c>
       <c r="C38">
         <v>88</v>
       </c>
       <c r="D38">
+        <v>88</v>
+      </c>
+      <c r="E38">
         <v>85</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>86</v>
-      </c>
-      <c r="F38">
-        <v>80</v>
       </c>
       <c r="G38">
         <v>80</v>
       </c>
       <c r="H38">
+        <v>80</v>
+      </c>
+      <c r="I38">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39">
         <v>110</v>
-      </c>
-      <c r="B39">
-        <v>93</v>
       </c>
       <c r="C39">
         <v>93</v>
       </c>
       <c r="D39">
+        <v>93</v>
+      </c>
+      <c r="E39">
         <v>98</v>
-      </c>
-      <c r="E39">
-        <v>93</v>
       </c>
       <c r="F39">
         <v>93</v>
@@ -1460,25 +1596,28 @@
       <c r="H39">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="I39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>37</v>
+      </c>
+      <c r="B40">
         <v>99</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>96</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>106</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>90</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>96</v>
-      </c>
-      <c r="F40">
-        <v>90</v>
       </c>
       <c r="G40">
         <v>90</v>
@@ -1486,25 +1625,28 @@
       <c r="H40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>91</v>
+      <c r="I40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>38</v>
       </c>
       <c r="B41">
         <v>91</v>
       </c>
       <c r="C41">
+        <v>91</v>
+      </c>
+      <c r="D41">
         <v>87</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>82</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>83</v>
-      </c>
-      <c r="F41">
-        <v>82</v>
       </c>
       <c r="G41">
         <v>82</v>
@@ -1512,13 +1654,16 @@
       <c r="H41">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="I41">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>39</v>
+      </c>
+      <c r="B42">
         <v>93</v>
-      </c>
-      <c r="B42">
-        <v>91</v>
       </c>
       <c r="C42">
         <v>91</v>
@@ -1533,30 +1678,33 @@
         <v>91</v>
       </c>
       <c r="G42">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="I42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43">
         <v>124</v>
-      </c>
-      <c r="B43">
-        <v>125</v>
       </c>
       <c r="C43">
         <v>125</v>
       </c>
       <c r="D43">
+        <v>125</v>
+      </c>
+      <c r="E43">
         <v>122</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>116</v>
-      </c>
-      <c r="F43">
-        <v>122</v>
       </c>
       <c r="G43">
         <v>122</v>
@@ -1564,25 +1712,28 @@
       <c r="H43">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="I43">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>41</v>
+      </c>
+      <c r="B44">
         <v>116</v>
-      </c>
-      <c r="B44">
-        <v>103</v>
       </c>
       <c r="C44">
         <v>103</v>
       </c>
       <c r="D44">
+        <v>103</v>
+      </c>
+      <c r="E44">
         <v>111</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>103</v>
-      </c>
-      <c r="F44">
-        <v>113</v>
       </c>
       <c r="G44">
         <v>113</v>
@@ -1590,22 +1741,25 @@
       <c r="H44">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="I44">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42</v>
+      </c>
+      <c r="B45">
         <v>133</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>123</v>
-      </c>
-      <c r="C45">
-        <v>130</v>
       </c>
       <c r="D45">
         <v>130</v>
       </c>
       <c r="E45">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45">
         <v>128</v>
@@ -1616,25 +1770,28 @@
       <c r="H45">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="I45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46">
         <v>137</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>122</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>121</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>128</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>122</v>
-      </c>
-      <c r="F46">
-        <v>125</v>
       </c>
       <c r="G46">
         <v>125</v>
@@ -1642,25 +1799,28 @@
       <c r="H46">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="I46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47">
         <v>104</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>100</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>112</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>94</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>104</v>
-      </c>
-      <c r="F47">
-        <v>98</v>
       </c>
       <c r="G47">
         <v>98</v>
@@ -1668,25 +1828,28 @@
       <c r="H47">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="I47">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48">
         <v>136</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>148</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>146</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>115</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>111</v>
-      </c>
-      <c r="F48">
-        <v>113</v>
       </c>
       <c r="G48">
         <v>113</v>
@@ -1694,22 +1857,25 @@
       <c r="H48">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="I48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49">
         <v>120</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>121</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>119</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>120</v>
-      </c>
-      <c r="E49">
-        <v>121</v>
       </c>
       <c r="F49">
         <v>121</v>
@@ -1720,25 +1886,28 @@
       <c r="H49">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="I49">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50">
         <v>135</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>134</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>137</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>136</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>143</v>
-      </c>
-      <c r="F50">
-        <v>134</v>
       </c>
       <c r="G50">
         <v>134</v>
@@ -1746,13 +1915,16 @@
       <c r="H50">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I50">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51">
         <v>109</v>
-      </c>
-      <c r="B51">
-        <v>105</v>
       </c>
       <c r="C51">
         <v>105</v>
@@ -1764,59 +1936,65 @@
         <v>105</v>
       </c>
       <c r="F51">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51">
         <v>104</v>
       </c>
       <c r="H51">
+        <v>104</v>
+      </c>
+      <c r="I51">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52">
         <v>138</v>
-      </c>
-      <c r="B52">
-        <v>139</v>
       </c>
       <c r="C52">
         <v>139</v>
       </c>
       <c r="D52">
+        <v>139</v>
+      </c>
+      <c r="E52">
         <v>124</v>
-      </c>
-      <c r="E52">
-        <v>138</v>
       </c>
       <c r="F52">
         <v>138</v>
       </c>
       <c r="G52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H52">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="I52">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53">
         <v>124</v>
-      </c>
-      <c r="B53">
-        <v>128</v>
       </c>
       <c r="C53">
         <v>128</v>
       </c>
       <c r="D53">
+        <v>128</v>
+      </c>
+      <c r="E53">
         <v>137</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>123</v>
-      </c>
-      <c r="F53">
-        <v>139</v>
       </c>
       <c r="G53">
         <v>139</v>
@@ -1824,25 +2002,28 @@
       <c r="H53">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="I53">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54">
         <v>195</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>185</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>184</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>179</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>175</v>
-      </c>
-      <c r="F54">
-        <v>180</v>
       </c>
       <c r="G54">
         <v>180</v>
@@ -1850,25 +2031,28 @@
       <c r="H54">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="I54">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55">
         <v>157</v>
-      </c>
-      <c r="B55">
-        <v>152</v>
       </c>
       <c r="C55">
         <v>152</v>
       </c>
       <c r="D55">
+        <v>152</v>
+      </c>
+      <c r="E55">
         <v>149</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>152</v>
-      </c>
-      <c r="F55">
-        <v>155</v>
       </c>
       <c r="G55">
         <v>155</v>
@@ -1876,22 +2060,25 @@
       <c r="H55">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="I55">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56">
         <v>108</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>107</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>106</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>101</v>
-      </c>
-      <c r="E56">
-        <v>106</v>
       </c>
       <c r="F56">
         <v>106</v>
@@ -1902,77 +2089,86 @@
       <c r="H56">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="I56">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57">
         <v>121</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>123</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>125</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>124</v>
-      </c>
-      <c r="E57">
-        <v>123</v>
       </c>
       <c r="F57">
         <v>123</v>
       </c>
       <c r="G57">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H57">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="I57">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58">
         <v>115</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>122</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>121</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>108</v>
-      </c>
-      <c r="E58">
-        <v>113</v>
       </c>
       <c r="F58">
         <v>113</v>
       </c>
       <c r="G58">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H58">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="I58">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59">
         <v>141</v>
-      </c>
-      <c r="B59">
-        <v>142</v>
       </c>
       <c r="C59">
         <v>142</v>
       </c>
       <c r="D59">
+        <v>142</v>
+      </c>
+      <c r="E59">
         <v>135</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>121</v>
-      </c>
-      <c r="F59">
-        <v>120</v>
       </c>
       <c r="G59">
         <v>120</v>
@@ -1980,10 +2176,13 @@
       <c r="H59">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>144</v>
+      <c r="I59">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>57</v>
       </c>
       <c r="B60">
         <v>144</v>
@@ -1998,7 +2197,7 @@
         <v>144</v>
       </c>
       <c r="F60">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G60">
         <v>142</v>
@@ -2006,41 +2205,45 @@
       <c r="H60">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="I60">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>93.396551724137893</v>
       </c>
-      <c r="B61">
-        <f>AVERAGE(B3:B60)</f>
+      <c r="C61">
+        <f>AVERAGE(C3:C60)</f>
         <v>92.068965517241381</v>
       </c>
-      <c r="C61">
-        <f t="shared" ref="C61:H61" si="0">AVERAGE(C3:C60)</f>
+      <c r="D61">
+        <f t="shared" ref="D61:I61" si="0">AVERAGE(D3:D60)</f>
         <v>92.793103448275858</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>89.827586206896555</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="0"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <f t="shared" si="0"/>
         <v>90.120689655172413</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="0"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <f t="shared" si="0"/>
         <v>90.224137931034477</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30917CA8-952D-48EE-B63F-907553C39D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FED07-1CDF-4377-8535-11B03F073AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FBE</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Blueprint index</t>
+  </si>
+  <si>
+    <t>FLUTE-9</t>
+  </si>
+  <si>
+    <t>804155b9b33e00f149b50067820ef646b194765a</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -139,17 +151,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,79 +504,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
+        <f>MIN(C3:K3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -555,28 +614,39 @@
       <c r="I3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <f>K3-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
+        <f>MIN(C4:K4)</f>
+        <v>121</v>
+      </c>
+      <c r="C4">
         <v>137</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>143</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>141</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>129</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>139</v>
-      </c>
-      <c r="G4">
-        <v>133</v>
       </c>
       <c r="H4">
         <v>133</v>
@@ -584,25 +654,36 @@
       <c r="I4">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>133</v>
+      </c>
+      <c r="K4">
+        <v>121</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L60" si="0">K4-B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
+        <f>MIN(C5:K5)</f>
+        <v>99</v>
+      </c>
+      <c r="C5">
         <v>113</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>106</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>113</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>106</v>
-      </c>
-      <c r="F5">
-        <v>102</v>
       </c>
       <c r="G5">
         <v>102</v>
@@ -613,54 +694,76 @@
       <c r="I5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>102</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
+        <f>MIN(C6:K6)</f>
+        <v>80</v>
+      </c>
+      <c r="C6">
         <v>90</v>
-      </c>
-      <c r="C6">
-        <v>83</v>
       </c>
       <c r="D6">
         <v>83</v>
       </c>
       <c r="E6">
+        <v>83</v>
+      </c>
+      <c r="F6">
         <v>80</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>83</v>
-      </c>
-      <c r="G6">
-        <v>80</v>
       </c>
       <c r="H6">
         <v>80</v>
       </c>
       <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>83</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
+        <f>MIN(C7:K7)</f>
         <v>84</v>
       </c>
       <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
         <v>85</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>88</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87</v>
-      </c>
-      <c r="F7">
-        <v>85</v>
       </c>
       <c r="G7">
         <v>85</v>
@@ -671,28 +774,39 @@
       <c r="I7">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>88</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
+        <f>MIN(C8:K8)</f>
+        <v>77</v>
+      </c>
+      <c r="C8">
         <v>80</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>82</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>91</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>77</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>79</v>
-      </c>
-      <c r="G8">
-        <v>77</v>
       </c>
       <c r="H8">
         <v>77</v>
@@ -700,22 +814,33 @@
       <c r="I8">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>82</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
+        <f>MIN(C9:K9)</f>
+        <v>94</v>
+      </c>
+      <c r="C9">
         <v>96</v>
-      </c>
-      <c r="C9">
-        <v>94</v>
       </c>
       <c r="D9">
         <v>94</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -729,25 +854,36 @@
       <c r="I9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>97</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
+        <f>MIN(C10:K10)</f>
+        <v>67</v>
+      </c>
+      <c r="C10">
         <v>82</v>
-      </c>
-      <c r="C10">
-        <v>69</v>
       </c>
       <c r="D10">
         <v>69</v>
       </c>
       <c r="E10">
+        <v>69</v>
+      </c>
+      <c r="F10">
         <v>68</v>
-      </c>
-      <c r="F10">
-        <v>67</v>
       </c>
       <c r="G10">
         <v>67</v>
@@ -758,16 +894,27 @@
       <c r="I10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>67</v>
+      </c>
+      <c r="K10">
+        <v>73</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
+        <f>MIN(C11:K11)</f>
+        <v>89</v>
+      </c>
+      <c r="C11">
         <v>95</v>
-      </c>
-      <c r="C11">
-        <v>93</v>
       </c>
       <c r="D11">
         <v>93</v>
@@ -787,25 +934,36 @@
       <c r="I11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>89</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
+        <f>MIN(C12:K12)</f>
+        <v>103</v>
+      </c>
+      <c r="C12">
         <v>126</v>
-      </c>
-      <c r="C12">
-        <v>110</v>
       </c>
       <c r="D12">
         <v>110</v>
       </c>
       <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
         <v>103</v>
-      </c>
-      <c r="F12">
-        <v>110</v>
       </c>
       <c r="G12">
         <v>110</v>
@@ -816,57 +974,79 @@
       <c r="I12">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <v>117</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
+        <f>MIN(C13:K13)</f>
+        <v>108</v>
+      </c>
+      <c r="C13">
         <v>112</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>116</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>123</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>116</v>
-      </c>
-      <c r="F13">
-        <v>123</v>
       </c>
       <c r="G13">
         <v>123</v>
       </c>
       <c r="H13">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I13">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>114</v>
+      </c>
+      <c r="K13">
+        <v>108</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>64</v>
+      <c r="B14" s="6">
+        <f>MIN(C14:K14)</f>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>64</v>
       </c>
       <c r="D14">
+        <v>64</v>
+      </c>
+      <c r="E14">
         <v>71</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
       </c>
       <c r="F14">
         <v>55</v>
       </c>
       <c r="G14">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H14">
         <v>70</v>
@@ -874,19 +1054,30 @@
       <c r="I14">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>70</v>
+      </c>
+      <c r="K14">
+        <v>54</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
+        <f>MIN(C15:K15)</f>
+        <v>76</v>
+      </c>
+      <c r="C15">
         <v>85</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>89</v>
-      </c>
-      <c r="D15">
-        <v>77</v>
       </c>
       <c r="E15">
         <v>77</v>
@@ -895,36 +1086,47 @@
         <v>77</v>
       </c>
       <c r="G15">
+        <v>77</v>
+      </c>
+      <c r="H15">
         <v>83</v>
-      </c>
-      <c r="H15">
-        <v>80</v>
       </c>
       <c r="I15">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>80</v>
+      </c>
+      <c r="K15">
+        <v>76</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
+        <f>MIN(C16:K16)</f>
+        <v>93</v>
+      </c>
+      <c r="C16">
         <v>101</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>105</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>108</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>96</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>105</v>
-      </c>
-      <c r="G16">
-        <v>96</v>
       </c>
       <c r="H16">
         <v>96</v>
@@ -932,12 +1134,23 @@
       <c r="I16">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>96</v>
+      </c>
+      <c r="K16">
+        <v>93</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
+        <f>MIN(C17:K17)</f>
         <v>74</v>
       </c>
       <c r="C17">
@@ -953,7 +1166,7 @@
         <v>74</v>
       </c>
       <c r="G17">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17">
         <v>75</v>
@@ -961,16 +1174,27 @@
       <c r="I17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>75</v>
+      </c>
+      <c r="K17">
+        <v>76</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
+        <f>MIN(C18:K18)</f>
+        <v>80</v>
+      </c>
+      <c r="C18">
         <v>83</v>
-      </c>
-      <c r="C18">
-        <v>91</v>
       </c>
       <c r="D18">
         <v>91</v>
@@ -979,27 +1203,38 @@
         <v>91</v>
       </c>
       <c r="F18">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G18">
         <v>82</v>
       </c>
       <c r="H18">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>83</v>
+      </c>
+      <c r="K18">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
+        <f>MIN(C19:K19)</f>
         <v>28</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>32</v>
@@ -1019,19 +1254,30 @@
       <c r="I19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
+        <f>MIN(C20:K20)</f>
         <v>37</v>
       </c>
       <c r="C20">
         <v>37</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20">
         <v>38</v>
@@ -1048,16 +1294,27 @@
       <c r="I20">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>37</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
+        <f>MIN(C21:K21)</f>
         <v>32</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>33</v>
@@ -1077,22 +1334,33 @@
       <c r="I21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
+        <f>MIN(C22:K22)</f>
         <v>48</v>
       </c>
       <c r="C22">
+        <v>48</v>
+      </c>
+      <c r="D22">
         <v>51</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>49</v>
-      </c>
-      <c r="E22">
-        <v>52</v>
       </c>
       <c r="F22">
         <v>52</v>
@@ -1106,12 +1374,23 @@
       <c r="I22">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>49</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
+        <f>MIN(C23:K23)</f>
         <v>14</v>
       </c>
       <c r="C23">
@@ -1135,19 +1414,30 @@
       <c r="I23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
+        <f>MIN(C24:K24)</f>
+        <v>57</v>
+      </c>
+      <c r="C24">
         <v>65</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>58</v>
-      </c>
-      <c r="D24">
-        <v>57</v>
       </c>
       <c r="E24">
         <v>57</v>
@@ -1159,24 +1449,35 @@
         <v>57</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>58</v>
+      </c>
+      <c r="K24">
+        <v>58</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
+        <f>MIN(C25:K25)</f>
+        <v>63</v>
+      </c>
+      <c r="C25">
         <v>66</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>70</v>
-      </c>
-      <c r="D25">
-        <v>63</v>
       </c>
       <c r="E25">
         <v>63</v>
@@ -1193,16 +1494,27 @@
       <c r="I25">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>67</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
+        <f>MIN(C26:K26)</f>
+        <v>29</v>
+      </c>
+      <c r="C26">
         <v>33</v>
-      </c>
-      <c r="C26">
-        <v>29</v>
       </c>
       <c r="D26">
         <v>29</v>
@@ -1222,12 +1534,23 @@
       <c r="I26">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
+        <f>MIN(C27:K27)</f>
         <v>29</v>
       </c>
       <c r="C27">
@@ -1251,16 +1574,27 @@
       <c r="I27">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>29</v>
+      </c>
+      <c r="K27">
+        <v>29</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
+        <f>MIN(C28:K28)</f>
+        <v>69</v>
+      </c>
+      <c r="C28">
         <v>70</v>
-      </c>
-      <c r="C28">
-        <v>69</v>
       </c>
       <c r="D28">
         <v>69</v>
@@ -1275,50 +1609,72 @@
         <v>69</v>
       </c>
       <c r="H28">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I28">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>72</v>
+      </c>
+      <c r="K28">
+        <v>77</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
+        <f>MIN(C29:K29)</f>
+        <v>46</v>
+      </c>
+      <c r="C29">
         <v>58</v>
-      </c>
-      <c r="C29">
-        <v>46</v>
       </c>
       <c r="D29">
         <v>46</v>
       </c>
       <c r="E29">
+        <v>46</v>
+      </c>
+      <c r="F29">
         <v>50</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>46</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>50</v>
-      </c>
-      <c r="H29">
-        <v>47</v>
       </c>
       <c r="I29">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>51</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
+        <f>MIN(C30:K30)</f>
         <v>45</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30">
         <v>46</v>
@@ -1327,7 +1683,7 @@
         <v>46</v>
       </c>
       <c r="F30">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G30">
         <v>48</v>
@@ -1338,22 +1694,33 @@
       <c r="I30">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>45</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31">
-        <v>97</v>
+      <c r="B31" s="6">
+        <f>MIN(C31:K31)</f>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>97</v>
       </c>
       <c r="D31">
+        <v>97</v>
+      </c>
+      <c r="E31">
         <v>94</v>
-      </c>
-      <c r="E31">
-        <v>97</v>
       </c>
       <c r="F31">
         <v>97</v>
@@ -1362,27 +1729,38 @@
         <v>97</v>
       </c>
       <c r="H31">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I31">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>94</v>
+      </c>
+      <c r="K31">
+        <v>87</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
+        <f>MIN(C32:K32)</f>
+        <v>58</v>
+      </c>
+      <c r="C32">
         <v>70</v>
-      </c>
-      <c r="C32">
-        <v>59</v>
       </c>
       <c r="D32">
         <v>59</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>60</v>
@@ -1394,27 +1772,38 @@
         <v>60</v>
       </c>
       <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>58</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
+        <f>MIN(C33:K33)</f>
         <v>71</v>
       </c>
       <c r="C33">
+        <v>71</v>
+      </c>
+      <c r="D33">
         <v>73</v>
-      </c>
-      <c r="D33">
-        <v>74</v>
       </c>
       <c r="E33">
         <v>74</v>
       </c>
       <c r="F33">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33">
         <v>73</v>
@@ -1423,24 +1812,35 @@
         <v>73</v>
       </c>
       <c r="I33">
+        <v>73</v>
+      </c>
+      <c r="J33">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>75</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
+        <f>MIN(C34:K34)</f>
         <v>58</v>
       </c>
       <c r="C34">
+        <v>58</v>
+      </c>
+      <c r="D34">
         <v>65</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>62</v>
-      </c>
-      <c r="E34">
-        <v>65</v>
       </c>
       <c r="F34">
         <v>65</v>
@@ -1454,13 +1854,24 @@
       <c r="I34">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>62</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35">
-        <v>46</v>
+      <c r="B35" s="6">
+        <f>MIN(C35:K35)</f>
+        <v>45</v>
       </c>
       <c r="C35">
         <v>46</v>
@@ -1469,10 +1880,10 @@
         <v>46</v>
       </c>
       <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="F35">
         <v>45</v>
-      </c>
-      <c r="F35">
-        <v>46</v>
       </c>
       <c r="G35">
         <v>46</v>
@@ -1483,28 +1894,39 @@
       <c r="I35">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>51</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
+        <f>MIN(C36:K36)</f>
+        <v>130</v>
+      </c>
+      <c r="C36">
         <v>132</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>134</v>
-      </c>
-      <c r="D36">
-        <v>135</v>
       </c>
       <c r="E36">
         <v>135</v>
       </c>
       <c r="F36">
+        <v>135</v>
+      </c>
+      <c r="G36">
         <v>134</v>
-      </c>
-      <c r="G36">
-        <v>130</v>
       </c>
       <c r="H36">
         <v>130</v>
@@ -1512,83 +1934,116 @@
       <c r="I36">
         <v>130</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>130</v>
+      </c>
+      <c r="K36">
+        <v>136</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
+        <f>MIN(C37:K37)</f>
+        <v>140</v>
+      </c>
+      <c r="C37">
         <v>156</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>150</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>161</v>
-      </c>
-      <c r="E37">
-        <v>146</v>
       </c>
       <c r="F37">
         <v>146</v>
       </c>
       <c r="G37">
+        <v>146</v>
+      </c>
+      <c r="H37">
         <v>140</v>
-      </c>
-      <c r="H37">
-        <v>144</v>
       </c>
       <c r="I37">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>144</v>
+      </c>
+      <c r="K37">
+        <v>154</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
+        <f>MIN(C38:K38)</f>
         <v>74</v>
       </c>
       <c r="C38">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D38">
         <v>88</v>
       </c>
       <c r="E38">
+        <v>88</v>
+      </c>
+      <c r="F38">
         <v>85</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>86</v>
-      </c>
-      <c r="G38">
-        <v>80</v>
       </c>
       <c r="H38">
         <v>80</v>
       </c>
       <c r="I38">
+        <v>80</v>
+      </c>
+      <c r="J38">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>83</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
+        <f>MIN(C39:K39)</f>
+        <v>93</v>
+      </c>
+      <c r="C39">
         <v>110</v>
-      </c>
-      <c r="C39">
-        <v>93</v>
       </c>
       <c r="D39">
         <v>93</v>
       </c>
       <c r="E39">
+        <v>93</v>
+      </c>
+      <c r="F39">
         <v>98</v>
-      </c>
-      <c r="F39">
-        <v>93</v>
       </c>
       <c r="G39">
         <v>93</v>
@@ -1599,28 +2054,39 @@
       <c r="I39">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>93</v>
+      </c>
+      <c r="K39">
+        <v>98</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
+        <f>MIN(C40:K40)</f>
+        <v>90</v>
+      </c>
+      <c r="C40">
         <v>99</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>96</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>106</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>90</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>96</v>
-      </c>
-      <c r="G40">
-        <v>90</v>
       </c>
       <c r="H40">
         <v>90</v>
@@ -1628,28 +2094,39 @@
       <c r="I40">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>90</v>
+      </c>
+      <c r="K40">
+        <v>91</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41">
-        <v>91</v>
+      <c r="B41" s="6">
+        <f>MIN(C41:K41)</f>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>91</v>
       </c>
       <c r="D41">
+        <v>91</v>
+      </c>
+      <c r="E41">
         <v>87</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>82</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>83</v>
-      </c>
-      <c r="G41">
-        <v>82</v>
       </c>
       <c r="H41">
         <v>82</v>
@@ -1657,16 +2134,27 @@
       <c r="I41">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>82</v>
+      </c>
+      <c r="K41">
+        <v>82</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
+        <f>MIN(C42:K42)</f>
+        <v>91</v>
+      </c>
+      <c r="C42">
         <v>93</v>
-      </c>
-      <c r="C42">
-        <v>91</v>
       </c>
       <c r="D42">
         <v>91</v>
@@ -1681,33 +2169,44 @@
         <v>91</v>
       </c>
       <c r="H42">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I42">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>95</v>
+      </c>
+      <c r="K42">
+        <v>95</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
+        <f>MIN(C43:K43)</f>
+        <v>116</v>
+      </c>
+      <c r="C43">
         <v>124</v>
-      </c>
-      <c r="C43">
-        <v>125</v>
       </c>
       <c r="D43">
         <v>125</v>
       </c>
       <c r="E43">
+        <v>125</v>
+      </c>
+      <c r="F43">
         <v>122</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>116</v>
-      </c>
-      <c r="G43">
-        <v>122</v>
       </c>
       <c r="H43">
         <v>122</v>
@@ -1715,28 +2214,39 @@
       <c r="I43">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>122</v>
+      </c>
+      <c r="K43">
+        <v>125</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
+        <f>MIN(C44:K44)</f>
+        <v>103</v>
+      </c>
+      <c r="C44">
         <v>116</v>
-      </c>
-      <c r="C44">
-        <v>103</v>
       </c>
       <c r="D44">
         <v>103</v>
       </c>
       <c r="E44">
+        <v>103</v>
+      </c>
+      <c r="F44">
         <v>111</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>103</v>
-      </c>
-      <c r="G44">
-        <v>113</v>
       </c>
       <c r="H44">
         <v>113</v>
@@ -1744,25 +2254,36 @@
       <c r="I44">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>113</v>
+      </c>
+      <c r="K44">
+        <v>113</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
+        <f>MIN(C45:K45)</f>
+        <v>123</v>
+      </c>
+      <c r="C45">
         <v>133</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>123</v>
-      </c>
-      <c r="D45">
-        <v>130</v>
       </c>
       <c r="E45">
         <v>130</v>
       </c>
       <c r="F45">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G45">
         <v>128</v>
@@ -1773,28 +2294,39 @@
       <c r="I45">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>128</v>
+      </c>
+      <c r="K45">
+        <v>123</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
+        <f>MIN(C46:K46)</f>
+        <v>121</v>
+      </c>
+      <c r="C46">
         <v>137</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>122</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>121</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>128</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>122</v>
-      </c>
-      <c r="G46">
-        <v>125</v>
       </c>
       <c r="H46">
         <v>125</v>
@@ -1802,28 +2334,39 @@
       <c r="I46">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>125</v>
+      </c>
+      <c r="K46">
+        <v>128</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
+        <f>MIN(C47:K47)</f>
+        <v>94</v>
+      </c>
+      <c r="C47">
         <v>104</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>100</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>112</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>94</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>104</v>
-      </c>
-      <c r="G47">
-        <v>98</v>
       </c>
       <c r="H47">
         <v>98</v>
@@ -1831,28 +2374,39 @@
       <c r="I47">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>98</v>
+      </c>
+      <c r="K47">
+        <v>105</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
+        <f>MIN(C48:K48)</f>
+        <v>111</v>
+      </c>
+      <c r="C48">
         <v>136</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>148</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>146</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>115</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>111</v>
-      </c>
-      <c r="G48">
-        <v>113</v>
       </c>
       <c r="H48">
         <v>113</v>
@@ -1860,25 +2414,36 @@
       <c r="I48">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>113</v>
+      </c>
+      <c r="K48">
+        <v>121</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
+        <f>MIN(C49:K49)</f>
+        <v>115</v>
+      </c>
+      <c r="C49">
         <v>120</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>121</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>119</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>120</v>
-      </c>
-      <c r="F49">
-        <v>121</v>
       </c>
       <c r="G49">
         <v>121</v>
@@ -1889,28 +2454,39 @@
       <c r="I49">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>121</v>
+      </c>
+      <c r="K49">
+        <v>115</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
+        <f>MIN(C50:K50)</f>
+        <v>132</v>
+      </c>
+      <c r="C50">
         <v>135</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>134</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>137</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>136</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>143</v>
-      </c>
-      <c r="G50">
-        <v>134</v>
       </c>
       <c r="H50">
         <v>134</v>
@@ -1918,16 +2494,27 @@
       <c r="I50">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>134</v>
+      </c>
+      <c r="K50">
+        <v>132</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
+        <f>MIN(C51:K51)</f>
+        <v>94</v>
+      </c>
+      <c r="C51">
         <v>109</v>
-      </c>
-      <c r="C51">
-        <v>105</v>
       </c>
       <c r="D51">
         <v>105</v>
@@ -1939,65 +2526,87 @@
         <v>105</v>
       </c>
       <c r="G51">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H51">
         <v>104</v>
       </c>
       <c r="I51">
+        <v>104</v>
+      </c>
+      <c r="J51">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>94</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
+        <f>MIN(C52:K52)</f>
+        <v>124</v>
+      </c>
+      <c r="C52">
         <v>138</v>
-      </c>
-      <c r="C52">
-        <v>139</v>
       </c>
       <c r="D52">
         <v>139</v>
       </c>
       <c r="E52">
+        <v>139</v>
+      </c>
+      <c r="F52">
         <v>124</v>
-      </c>
-      <c r="F52">
-        <v>138</v>
       </c>
       <c r="G52">
         <v>138</v>
       </c>
       <c r="H52">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I52">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>139</v>
+      </c>
+      <c r="K52">
+        <v>125</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
+        <f>MIN(C53:K53)</f>
+        <v>118</v>
+      </c>
+      <c r="C53">
         <v>124</v>
-      </c>
-      <c r="C53">
-        <v>128</v>
       </c>
       <c r="D53">
         <v>128</v>
       </c>
       <c r="E53">
+        <v>128</v>
+      </c>
+      <c r="F53">
         <v>137</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>123</v>
-      </c>
-      <c r="G53">
-        <v>139</v>
       </c>
       <c r="H53">
         <v>139</v>
@@ -2005,28 +2614,39 @@
       <c r="I53">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>139</v>
+      </c>
+      <c r="K53">
+        <v>118</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
+        <f>MIN(C54:K54)</f>
+        <v>175</v>
+      </c>
+      <c r="C54">
         <v>195</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>185</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>184</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>179</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>175</v>
-      </c>
-      <c r="G54">
-        <v>180</v>
       </c>
       <c r="H54">
         <v>180</v>
@@ -2034,28 +2654,39 @@
       <c r="I54">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>180</v>
+      </c>
+      <c r="K54">
+        <v>178</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
+        <f>MIN(C55:K55)</f>
+        <v>149</v>
+      </c>
+      <c r="C55">
         <v>157</v>
-      </c>
-      <c r="C55">
-        <v>152</v>
       </c>
       <c r="D55">
         <v>152</v>
       </c>
       <c r="E55">
+        <v>152</v>
+      </c>
+      <c r="F55">
         <v>149</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>152</v>
-      </c>
-      <c r="G55">
-        <v>155</v>
       </c>
       <c r="H55">
         <v>155</v>
@@ -2063,25 +2694,36 @@
       <c r="I55">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>155</v>
+      </c>
+      <c r="K55">
+        <v>150</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="6">
+        <f>MIN(C56:K56)</f>
+        <v>101</v>
+      </c>
+      <c r="C56">
         <v>108</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>107</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>106</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>101</v>
-      </c>
-      <c r="F56">
-        <v>106</v>
       </c>
       <c r="G56">
         <v>106</v>
@@ -2092,86 +2734,119 @@
       <c r="I56">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>106</v>
+      </c>
+      <c r="K56">
+        <v>104</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
+        <f>MIN(C57:K57)</f>
+        <v>114</v>
+      </c>
+      <c r="C57">
         <v>121</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>123</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>125</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>124</v>
-      </c>
-      <c r="F57">
-        <v>123</v>
       </c>
       <c r="G57">
         <v>123</v>
       </c>
       <c r="H57">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I57">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>122</v>
+      </c>
+      <c r="K57">
+        <v>114</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
+        <f>MIN(C58:K58)</f>
+        <v>108</v>
+      </c>
+      <c r="C58">
         <v>115</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>122</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>121</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>108</v>
-      </c>
-      <c r="F58">
-        <v>113</v>
       </c>
       <c r="G58">
         <v>113</v>
       </c>
       <c r="H58">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I58">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>109</v>
+      </c>
+      <c r="K58">
+        <v>108</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
+        <f>MIN(C59:K59)</f>
+        <v>120</v>
+      </c>
+      <c r="C59">
         <v>141</v>
-      </c>
-      <c r="C59">
-        <v>142</v>
       </c>
       <c r="D59">
         <v>142</v>
       </c>
       <c r="E59">
+        <v>142</v>
+      </c>
+      <c r="F59">
         <v>135</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>121</v>
-      </c>
-      <c r="G59">
-        <v>120</v>
       </c>
       <c r="H59">
         <v>120</v>
@@ -2179,13 +2854,24 @@
       <c r="I59">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>120</v>
+      </c>
+      <c r="K59">
+        <v>121</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60">
-        <v>144</v>
+      <c r="B60" s="6">
+        <f>MIN(C60:K60)</f>
+        <v>131</v>
       </c>
       <c r="C60">
         <v>144</v>
@@ -2200,7 +2886,7 @@
         <v>144</v>
       </c>
       <c r="G60">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H60">
         <v>142</v>
@@ -2208,41 +2894,64 @@
       <c r="I60">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61">
+      <c r="J60">
+        <v>142</v>
+      </c>
+      <c r="K60">
+        <v>131</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C61">
         <v>93.396551724137893</v>
       </c>
-      <c r="C61">
-        <f>AVERAGE(C3:C60)</f>
+      <c r="D61">
+        <f>AVERAGE(D3:D60)</f>
         <v>92.068965517241381</v>
       </c>
-      <c r="D61">
-        <f t="shared" ref="D61:I61" si="0">AVERAGE(D3:D60)</f>
+      <c r="E61">
+        <f t="shared" ref="E61:J61" si="1">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
+      <c r="F61">
+        <f t="shared" si="1"/>
         <v>89.827586206896555</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
+      <c r="G61">
+        <f t="shared" si="1"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
+      <c r="H61">
+        <f t="shared" si="1"/>
         <v>90.120689655172413</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
+      <c r="I61">
+        <f t="shared" si="1"/>
         <v>89.965517241379317</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="0"/>
+      <c r="J61">
+        <f t="shared" si="1"/>
         <v>90.224137931034477</v>
       </c>
+      <c r="K61">
+        <v>88.775862068965495</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:K1048576">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:K4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\GitHub\joelverhagen\FactorioTools\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79FED07-1CDF-4377-8535-11B03F073AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785628F-D891-4208-9F0E-29AE294F40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>FBE</t>
   </si>
@@ -100,6 +100,30 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>a8f549899c571087d9aec80fe95576e3f725c978</t>
+  </si>
+  <si>
+    <t>Shorter trunks</t>
+  </si>
+  <si>
+    <t>Prefer close to neighbor centroid</t>
+  </si>
+  <si>
+    <t>b840958b77288d75161e9e8ba958e8d3c4072c36</t>
+  </si>
+  <si>
+    <t>a146f34768acb02954a0a3bc4f3ad76126a94ec0</t>
+  </si>
+  <si>
+    <t>Don't let trunks overlap</t>
+  </si>
+  <si>
+    <t>Prefer paths that snap to pumpjack sides</t>
+  </si>
+  <si>
+    <t>0007e275b2bca5858cc5209e196e5b66ba35be6f</t>
+  </si>
 </sst>
 </file>
 
@@ -151,29 +175,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -504,24 +516,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" customWidth="1"/>
+    <col min="9" max="9" width="8.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -551,10 +563,22 @@
       <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -584,13 +608,25 @@
       <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
-        <f>MIN(C3:K3)</f>
+      <c r="B3">
+        <f>MIN(C3:O3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -621,16 +657,28 @@
         <v>16</v>
       </c>
       <c r="L3">
-        <f>K3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>16</v>
+      </c>
+      <c r="O3">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <f>N3-B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
-        <f>MIN(C4:K4)</f>
+      <c r="B4">
+        <f t="shared" ref="B4:B60" si="0">MIN(C4:O4)</f>
         <v>121</v>
       </c>
       <c r="C4">
@@ -661,16 +709,28 @@
         <v>121</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L60" si="0">K4-B4</f>
+        <v>125</v>
+      </c>
+      <c r="M4">
+        <v>121</v>
+      </c>
+      <c r="N4">
+        <v>121</v>
+      </c>
+      <c r="O4">
+        <v>121</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P60" si="1">N4-B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <f>MIN(C5:K5)</f>
+      <c r="B5">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="C5">
@@ -701,17 +761,29 @@
         <v>99</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="M5">
+        <v>109</v>
+      </c>
+      <c r="N5">
+        <v>109</v>
+      </c>
+      <c r="O5">
+        <v>111</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <f>MIN(C6:K6)</f>
-        <v>80</v>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>90</v>
@@ -741,17 +813,29 @@
         <v>83</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="M6">
+        <v>78</v>
+      </c>
+      <c r="N6">
+        <v>78</v>
+      </c>
+      <c r="O6">
+        <v>78</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <f>MIN(C7:K7)</f>
-        <v>84</v>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>84</v>
@@ -781,16 +865,28 @@
         <v>88</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="M7">
+        <v>83</v>
+      </c>
+      <c r="N7">
+        <v>83</v>
+      </c>
+      <c r="O7">
+        <v>83</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <f>MIN(C8:K8)</f>
+      <c r="B8">
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C8">
@@ -821,16 +917,28 @@
         <v>82</v>
       </c>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <v>82</v>
+      </c>
+      <c r="N8">
+        <v>82</v>
+      </c>
+      <c r="O8">
+        <v>82</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <f>MIN(C9:K9)</f>
+      <c r="B9">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C9">
@@ -861,17 +969,29 @@
         <v>97</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="M9">
+        <v>97</v>
+      </c>
+      <c r="N9">
+        <v>97</v>
+      </c>
+      <c r="O9">
+        <v>97</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <f>MIN(C10:K10)</f>
-        <v>67</v>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>82</v>
@@ -901,17 +1021,29 @@
         <v>73</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="M10">
+        <v>71</v>
+      </c>
+      <c r="N10">
+        <v>71</v>
+      </c>
+      <c r="O10">
+        <v>71</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <f>MIN(C11:K11)</f>
-        <v>89</v>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>95</v>
@@ -941,16 +1073,28 @@
         <v>89</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M11">
+        <v>88</v>
+      </c>
+      <c r="N11">
+        <v>88</v>
+      </c>
+      <c r="O11">
+        <v>88</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
-        <f>MIN(C12:K12)</f>
+      <c r="B12">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="C12">
@@ -981,16 +1125,28 @@
         <v>117</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="M12">
+        <v>107</v>
+      </c>
+      <c r="N12">
+        <v>103</v>
+      </c>
+      <c r="O12">
+        <v>103</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <f>MIN(C13:K13)</f>
+      <c r="B13">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C13">
@@ -1021,16 +1177,28 @@
         <v>108</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="M13">
+        <v>109</v>
+      </c>
+      <c r="N13">
+        <v>109</v>
+      </c>
+      <c r="O13">
+        <v>109</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
-        <f>MIN(C14:K14)</f>
+      <c r="B14">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C14">
@@ -1061,16 +1229,28 @@
         <v>54</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="M14">
+        <v>54</v>
+      </c>
+      <c r="N14">
+        <v>54</v>
+      </c>
+      <c r="O14">
+        <v>54</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
-        <f>MIN(C15:K15)</f>
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C15">
@@ -1101,16 +1281,28 @@
         <v>76</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M15">
+        <v>76</v>
+      </c>
+      <c r="N15">
+        <v>76</v>
+      </c>
+      <c r="O15">
+        <v>76</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
-        <f>MIN(C16:K16)</f>
+      <c r="B16">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="C16">
@@ -1141,16 +1333,28 @@
         <v>93</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="M16">
+        <v>93</v>
+      </c>
+      <c r="N16">
+        <v>93</v>
+      </c>
+      <c r="O16">
+        <v>93</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
-        <f>MIN(C17:K17)</f>
+      <c r="B17">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C17">
@@ -1181,16 +1385,28 @@
         <v>76</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M17">
+        <v>76</v>
+      </c>
+      <c r="N17">
+        <v>76</v>
+      </c>
+      <c r="O17">
+        <v>75</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
-        <f>MIN(C18:K18)</f>
+      <c r="B18">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="C18">
@@ -1221,16 +1437,28 @@
         <v>80</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="M18">
+        <v>84</v>
+      </c>
+      <c r="N18">
+        <v>84</v>
+      </c>
+      <c r="O18">
+        <v>84</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
-        <f>MIN(C19:K19)</f>
+      <c r="B19">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C19">
@@ -1261,16 +1489,28 @@
         <v>32</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>32</v>
+      </c>
+      <c r="N19">
+        <v>32</v>
+      </c>
+      <c r="O19">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
-        <f>MIN(C20:K20)</f>
+      <c r="B20">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C20">
@@ -1301,16 +1541,28 @@
         <v>37</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <v>37</v>
+      </c>
+      <c r="O20">
+        <v>37</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
-        <f>MIN(C21:K21)</f>
+      <c r="B21">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C21">
@@ -1341,16 +1593,28 @@
         <v>32</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>32</v>
+      </c>
+      <c r="O21">
+        <v>32</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
-        <f>MIN(C22:K22)</f>
+      <c r="B22">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C22">
@@ -1381,16 +1645,28 @@
         <v>49</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="M22">
+        <v>49</v>
+      </c>
+      <c r="N22">
+        <v>49</v>
+      </c>
+      <c r="O22">
+        <v>49</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
-        <f>MIN(C23:K23)</f>
+      <c r="B23">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23">
@@ -1421,16 +1697,28 @@
         <v>14</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M23">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
-        <f>MIN(C24:K24)</f>
+      <c r="B24">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C24">
@@ -1461,16 +1749,28 @@
         <v>58</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>58</v>
+      </c>
+      <c r="N24">
+        <v>58</v>
+      </c>
+      <c r="O24">
+        <v>57</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
-        <f>MIN(C25:K25)</f>
+      <c r="B25">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C25">
@@ -1501,16 +1801,28 @@
         <v>67</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="M25">
+        <v>67</v>
+      </c>
+      <c r="N25">
+        <v>67</v>
+      </c>
+      <c r="O25">
+        <v>67</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
-        <f>MIN(C26:K26)</f>
+      <c r="B26">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C26">
@@ -1541,16 +1853,28 @@
         <v>29</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>29</v>
+      </c>
+      <c r="O26">
+        <v>29</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
-        <f>MIN(C27:K27)</f>
+      <c r="B27">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C27">
@@ -1581,17 +1905,29 @@
         <v>29</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M27">
+        <v>29</v>
+      </c>
+      <c r="N27">
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <v>29</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
-        <f>MIN(C28:K28)</f>
-        <v>69</v>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>70</v>
@@ -1621,16 +1957,28 @@
         <v>77</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M28">
+        <v>66</v>
+      </c>
+      <c r="N28">
+        <v>66</v>
+      </c>
+      <c r="O28">
+        <v>66</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
-        <f>MIN(C29:K29)</f>
+      <c r="B29">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C29">
@@ -1661,16 +2009,28 @@
         <v>51</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="M29">
+        <v>47</v>
+      </c>
+      <c r="N29">
+        <v>47</v>
+      </c>
+      <c r="O29">
+        <v>47</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
-        <f>MIN(C30:K30)</f>
+      <c r="B30">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C30">
@@ -1701,16 +2061,28 @@
         <v>45</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M30">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>45</v>
+      </c>
+      <c r="O30">
+        <v>45</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
-        <f>MIN(C31:K31)</f>
+      <c r="B31">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="C31">
@@ -1741,16 +2113,28 @@
         <v>87</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="M31">
+        <v>88</v>
+      </c>
+      <c r="N31">
+        <v>88</v>
+      </c>
+      <c r="O31">
+        <v>87</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
-        <f>MIN(C32:K32)</f>
+      <c r="B32">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C32">
@@ -1781,16 +2165,28 @@
         <v>58</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="M32">
+        <v>58</v>
+      </c>
+      <c r="N32">
+        <v>58</v>
+      </c>
+      <c r="O32">
+        <v>58</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="6">
-        <f>MIN(C33:K33)</f>
+      <c r="B33">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C33">
@@ -1821,16 +2217,28 @@
         <v>75</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M33">
+        <v>75</v>
+      </c>
+      <c r="N33">
+        <v>75</v>
+      </c>
+      <c r="O33">
+        <v>75</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="6">
-        <f>MIN(C34:K34)</f>
+      <c r="B34">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C34">
@@ -1861,17 +2269,29 @@
         <v>62</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="M34">
+        <v>59</v>
+      </c>
+      <c r="N34">
+        <v>59</v>
+      </c>
+      <c r="O34">
+        <v>59</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="6">
-        <f>MIN(C35:K35)</f>
-        <v>45</v>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>46</v>
@@ -1901,16 +2321,28 @@
         <v>51</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M35">
+        <v>44</v>
+      </c>
+      <c r="N35">
+        <v>44</v>
+      </c>
+      <c r="O35">
+        <v>44</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="6">
-        <f>MIN(C36:K36)</f>
+      <c r="B36">
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="C36">
@@ -1941,16 +2373,28 @@
         <v>136</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="M36">
+        <v>131</v>
+      </c>
+      <c r="N36">
+        <v>131</v>
+      </c>
+      <c r="O36">
+        <v>130</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="6">
-        <f>MIN(C37:K37)</f>
+      <c r="B37">
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="C37">
@@ -1981,16 +2425,28 @@
         <v>154</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="M37">
+        <v>146</v>
+      </c>
+      <c r="N37">
+        <v>146</v>
+      </c>
+      <c r="O37">
+        <v>146</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="6">
-        <f>MIN(C38:K38)</f>
+      <c r="B38">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C38">
@@ -2021,16 +2477,28 @@
         <v>83</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="M38">
+        <v>81</v>
+      </c>
+      <c r="N38">
+        <v>81</v>
+      </c>
+      <c r="O38">
+        <v>81</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="6">
-        <f>MIN(C39:K39)</f>
+      <c r="B39">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="C39">
@@ -2061,17 +2529,29 @@
         <v>98</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="M39">
+        <v>98</v>
+      </c>
+      <c r="N39">
+        <v>98</v>
+      </c>
+      <c r="O39">
+        <v>96</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="6">
-        <f>MIN(C40:K40)</f>
-        <v>90</v>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="C40">
         <v>99</v>
@@ -2101,17 +2581,29 @@
         <v>91</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="M40">
+        <v>88</v>
+      </c>
+      <c r="N40">
+        <v>88</v>
+      </c>
+      <c r="O40">
+        <v>90</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="6">
-        <f>MIN(C41:K41)</f>
-        <v>82</v>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>91</v>
@@ -2141,16 +2633,28 @@
         <v>82</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="M41">
+        <v>81</v>
+      </c>
+      <c r="N41">
+        <v>81</v>
+      </c>
+      <c r="O41">
+        <v>84</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="6">
-        <f>MIN(C42:K42)</f>
+      <c r="B42">
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="C42">
@@ -2181,16 +2685,28 @@
         <v>95</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="M42">
+        <v>92</v>
+      </c>
+      <c r="N42">
+        <v>92</v>
+      </c>
+      <c r="O42">
+        <v>92</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="6">
-        <f>MIN(C43:K43)</f>
+      <c r="B43">
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="C43">
@@ -2221,16 +2737,28 @@
         <v>125</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="M43">
+        <v>134</v>
+      </c>
+      <c r="N43">
+        <v>134</v>
+      </c>
+      <c r="O43">
+        <v>124</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="6">
-        <f>MIN(C44:K44)</f>
+      <c r="B44">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="C44">
@@ -2261,17 +2789,29 @@
         <v>113</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="M44">
+        <v>108</v>
+      </c>
+      <c r="N44">
+        <v>108</v>
+      </c>
+      <c r="O44">
+        <v>107</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="6">
-        <f>MIN(C45:K45)</f>
-        <v>123</v>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>133</v>
@@ -2301,16 +2841,28 @@
         <v>123</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="M45">
+        <v>122</v>
+      </c>
+      <c r="N45">
+        <v>122</v>
+      </c>
+      <c r="O45">
+        <v>122</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="6">
-        <f>MIN(C46:K46)</f>
+      <c r="B46">
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
       <c r="C46">
@@ -2341,16 +2893,28 @@
         <v>128</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="M46">
+        <v>125</v>
+      </c>
+      <c r="N46">
+        <v>125</v>
+      </c>
+      <c r="O46">
+        <v>125</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="6">
-        <f>MIN(C47:K47)</f>
+      <c r="B47">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C47">
@@ -2381,16 +2945,28 @@
         <v>105</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="M47">
+        <v>98</v>
+      </c>
+      <c r="N47">
+        <v>98</v>
+      </c>
+      <c r="O47">
+        <v>98</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="6">
-        <f>MIN(C48:K48)</f>
+      <c r="B48">
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="C48">
@@ -2421,16 +2997,28 @@
         <v>121</v>
       </c>
       <c r="L48">
-        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="M48">
+        <v>121</v>
+      </c>
+      <c r="N48">
+        <v>121</v>
+      </c>
+      <c r="O48">
+        <v>121</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="6">
-        <f>MIN(C49:K49)</f>
+      <c r="B49">
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="C49">
@@ -2461,16 +3049,28 @@
         <v>115</v>
       </c>
       <c r="L49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="M49">
+        <v>120</v>
+      </c>
+      <c r="N49">
+        <v>120</v>
+      </c>
+      <c r="O49">
+        <v>120</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="6">
-        <f>MIN(C50:K50)</f>
+      <c r="B50">
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="C50">
@@ -2501,16 +3101,28 @@
         <v>132</v>
       </c>
       <c r="L50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="M50">
+        <v>140</v>
+      </c>
+      <c r="N50">
+        <v>140</v>
+      </c>
+      <c r="O50">
+        <v>135</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="6">
-        <f>MIN(C51:K51)</f>
+      <c r="B51">
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="C51">
@@ -2541,17 +3153,29 @@
         <v>94</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="M51">
+        <v>94</v>
+      </c>
+      <c r="N51">
+        <v>94</v>
+      </c>
+      <c r="O51">
+        <v>94</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="6">
-        <f>MIN(C52:K52)</f>
-        <v>124</v>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="C52">
         <v>138</v>
@@ -2581,16 +3205,28 @@
         <v>125</v>
       </c>
       <c r="L52">
-        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="M52">
+        <v>123</v>
+      </c>
+      <c r="N52">
+        <v>123</v>
+      </c>
+      <c r="O52">
+        <v>122</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="6">
-        <f>MIN(C53:K53)</f>
+      <c r="B53">
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
       <c r="C53">
@@ -2621,17 +3257,29 @@
         <v>118</v>
       </c>
       <c r="L53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="M53">
+        <v>119</v>
+      </c>
+      <c r="N53">
+        <v>119</v>
+      </c>
+      <c r="O53">
+        <v>119</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="6">
-        <f>MIN(C54:K54)</f>
-        <v>175</v>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>171</v>
       </c>
       <c r="C54">
         <v>195</v>
@@ -2661,16 +3309,28 @@
         <v>178</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="M54">
+        <v>172</v>
+      </c>
+      <c r="N54">
+        <v>172</v>
+      </c>
+      <c r="O54">
+        <v>171</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="6">
-        <f>MIN(C55:K55)</f>
+      <c r="B55">
+        <f t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="C55">
@@ -2701,16 +3361,28 @@
         <v>150</v>
       </c>
       <c r="L55">
-        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="M55">
+        <v>150</v>
+      </c>
+      <c r="N55">
+        <v>150</v>
+      </c>
+      <c r="O55">
+        <v>150</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="6">
-        <f>MIN(C56:K56)</f>
+      <c r="B56">
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="C56">
@@ -2741,17 +3413,29 @@
         <v>104</v>
       </c>
       <c r="L56">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="M56">
+        <v>103</v>
+      </c>
+      <c r="N56">
+        <v>103</v>
+      </c>
+      <c r="O56">
+        <v>102</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="6">
-        <f>MIN(C57:K57)</f>
-        <v>114</v>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>121</v>
@@ -2781,16 +3465,28 @@
         <v>114</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="M57">
+        <v>113</v>
+      </c>
+      <c r="N57">
+        <v>113</v>
+      </c>
+      <c r="O57">
+        <v>113</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="6">
-        <f>MIN(C58:K58)</f>
+      <c r="B58">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C58">
@@ -2821,16 +3517,28 @@
         <v>108</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="M58">
+        <v>108</v>
+      </c>
+      <c r="N58">
+        <v>108</v>
+      </c>
+      <c r="O58">
+        <v>111</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="6">
-        <f>MIN(C59:K59)</f>
+      <c r="B59">
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="C59">
@@ -2861,16 +3569,28 @@
         <v>121</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="M59">
+        <v>122</v>
+      </c>
+      <c r="N59">
+        <v>122</v>
+      </c>
+      <c r="O59">
+        <v>121</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="6">
-        <f>MIN(C60:K60)</f>
+      <c r="B60">
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="C60">
@@ -2901,11 +3621,23 @@
         <v>131</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="M60">
+        <v>131</v>
+      </c>
+      <c r="N60">
+        <v>131</v>
+      </c>
+      <c r="O60">
+        <v>131</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="C61">
         <v>93.396551724137893</v>
       </c>
@@ -2914,40 +3646,58 @@
         <v>92.068965517241381</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:J61" si="1">AVERAGE(E3:E60)</f>
+        <f t="shared" ref="E61:P61" si="2">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.827586206896555</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.965517241379317</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.120689655172413</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89.965517241379317</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.224137931034477</v>
       </c>
       <c r="K61">
-        <v>88.775862068965495</v>
+        <f t="shared" si="2"/>
+        <v>88.775862068965523</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>88.568965517241381</v>
+      </c>
+      <c r="M61">
+        <v>87.810344827586206</v>
+      </c>
+      <c r="N61">
+        <v>87.741379310344797</v>
+      </c>
+      <c r="O61">
+        <v>87.465517241379303</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>2.2413793103448274</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:K1048576">
+  <conditionalFormatting sqref="C1:O60 C62:O1048576 C61:P61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:K4">
+  <conditionalFormatting sqref="C4:O4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
@@ -2955,4 +3705,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\GitHub\joelverhagen\FactorioTools\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785628F-D891-4208-9F0E-29AE294F40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE764A9-1E30-4127-B4E1-16DC64938485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>FBE</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>0007e275b2bca5858cc5209e196e5b66ba35be6f</t>
+  </si>
+  <si>
+    <t>6895266baf0a232e390f5673bf0036f9ea6ccdf7</t>
+  </si>
+  <si>
+    <t>Rotate each terminal to try to find a slightly better connection</t>
+  </si>
+  <si>
+    <t>9d8a0295d946bdc2c57a606ba1376d2a8734b586</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,7 +538,7 @@
     <col min="9" max="9" width="8.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -575,8 +584,11 @@
       <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -620,13 +632,19 @@
       <c r="O2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>MIN(C3:O3)</f>
+        <f>MIN(C3:Q3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -669,16 +687,22 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <f>N3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <f>Q3-B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B60" si="0">MIN(C4:O4)</f>
+        <f t="shared" ref="B4:B60" si="0">MIN(C4:Q4)</f>
         <v>121</v>
       </c>
       <c r="C4">
@@ -721,17 +745,23 @@
         <v>121</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P60" si="1">N4-B4</f>
+        <v>121</v>
+      </c>
+      <c r="Q4">
+        <v>121</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R60" si="1">Q4-B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>113</v>
@@ -773,11 +803,17 @@
         <v>111</v>
       </c>
       <c r="P5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="Q5">
+        <v>95</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -825,11 +861,17 @@
         <v>78</v>
       </c>
       <c r="P6">
+        <v>78</v>
+      </c>
+      <c r="Q6">
+        <v>78</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -877,17 +919,23 @@
         <v>83</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="Q7">
+        <v>84</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>80</v>
@@ -929,17 +977,23 @@
         <v>82</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="Q8">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>96</v>
@@ -981,11 +1035,17 @@
         <v>97</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>90</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1033,17 +1093,23 @@
         <v>71</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="Q10">
+        <v>67</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>95</v>
@@ -1085,11 +1151,17 @@
         <v>88</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="Q11">
+        <v>88</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1137,17 +1209,23 @@
         <v>103</v>
       </c>
       <c r="P12">
+        <v>103</v>
+      </c>
+      <c r="Q12">
+        <v>103</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>112</v>
@@ -1189,11 +1267,17 @@
         <v>109</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+      <c r="Q13">
+        <v>104</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1241,11 +1325,17 @@
         <v>54</v>
       </c>
       <c r="P14">
+        <v>54</v>
+      </c>
+      <c r="Q14">
+        <v>54</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1293,11 +1383,17 @@
         <v>76</v>
       </c>
       <c r="P15">
+        <v>76</v>
+      </c>
+      <c r="Q15">
+        <v>76</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1345,17 +1441,23 @@
         <v>93</v>
       </c>
       <c r="P16">
+        <v>93</v>
+      </c>
+      <c r="Q16">
+        <v>93</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>74</v>
@@ -1397,11 +1499,17 @@
         <v>75</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="Q17">
+        <v>67</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1449,11 +1557,17 @@
         <v>84</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="Q18">
+        <v>82</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1501,11 +1615,17 @@
         <v>32</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>29</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1553,17 +1673,23 @@
         <v>37</v>
       </c>
       <c r="P20">
+        <v>37</v>
+      </c>
+      <c r="Q20">
+        <v>37</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -1605,11 +1731,17 @@
         <v>32</v>
       </c>
       <c r="P21">
+        <v>31</v>
+      </c>
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1657,11 +1789,17 @@
         <v>49</v>
       </c>
       <c r="P22">
+        <v>49</v>
+      </c>
+      <c r="Q22">
+        <v>49</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1709,11 +1847,17 @@
         <v>14</v>
       </c>
       <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1761,11 +1905,17 @@
         <v>57</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="Q24">
+        <v>57</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1813,11 +1963,17 @@
         <v>67</v>
       </c>
       <c r="P25">
+        <v>67</v>
+      </c>
+      <c r="Q25">
+        <v>67</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1865,11 +2021,17 @@
         <v>29</v>
       </c>
       <c r="P26">
+        <v>29</v>
+      </c>
+      <c r="Q26">
+        <v>29</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1917,11 +2079,17 @@
         <v>29</v>
       </c>
       <c r="P27">
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1969,11 +2137,17 @@
         <v>66</v>
       </c>
       <c r="P28">
+        <v>66</v>
+      </c>
+      <c r="Q28">
+        <v>66</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2021,17 +2195,23 @@
         <v>47</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="Q29">
+        <v>48</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>45</v>
@@ -2073,17 +2253,23 @@
         <v>45</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="Q30">
+        <v>45</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>97</v>
@@ -2125,11 +2311,17 @@
         <v>87</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="Q31">
+        <v>84</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2177,11 +2369,17 @@
         <v>58</v>
       </c>
       <c r="P32">
+        <v>58</v>
+      </c>
+      <c r="Q32">
+        <v>58</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2229,11 +2427,17 @@
         <v>75</v>
       </c>
       <c r="P33">
+        <v>75</v>
+      </c>
+      <c r="Q33">
+        <v>75</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2281,11 +2485,17 @@
         <v>59</v>
       </c>
       <c r="P34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="Q34">
+        <v>58</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2333,17 +2543,23 @@
         <v>44</v>
       </c>
       <c r="P35">
+        <v>44</v>
+      </c>
+      <c r="Q35">
+        <v>44</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <v>132</v>
@@ -2385,11 +2601,17 @@
         <v>130</v>
       </c>
       <c r="P36">
+        <v>129</v>
+      </c>
+      <c r="Q36">
+        <v>130</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2437,11 +2659,17 @@
         <v>146</v>
       </c>
       <c r="P37">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+      <c r="Q37">
+        <v>140</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2489,11 +2717,17 @@
         <v>81</v>
       </c>
       <c r="P38">
+        <v>79</v>
+      </c>
+      <c r="Q38">
+        <v>81</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2541,11 +2775,17 @@
         <v>96</v>
       </c>
       <c r="P39">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="Q39">
+        <v>95</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2593,17 +2833,23 @@
         <v>90</v>
       </c>
       <c r="P40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="Q40">
+        <v>93</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>91</v>
@@ -2645,11 +2891,17 @@
         <v>84</v>
       </c>
       <c r="P41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="Q41">
+        <v>81</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2697,11 +2949,17 @@
         <v>92</v>
       </c>
       <c r="P42">
+        <v>91</v>
+      </c>
+      <c r="Q42">
+        <v>92</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2749,11 +3007,17 @@
         <v>124</v>
       </c>
       <c r="P43">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="Q43">
+        <v>118</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2801,11 +3065,17 @@
         <v>107</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="Q44">
+        <v>107</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2853,17 +3123,23 @@
         <v>122</v>
       </c>
       <c r="P45">
+        <v>122</v>
+      </c>
+      <c r="Q45">
+        <v>122</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C46">
         <v>137</v>
@@ -2905,17 +3181,23 @@
         <v>125</v>
       </c>
       <c r="P46">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="Q46">
+        <v>112</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C47">
         <v>104</v>
@@ -2957,11 +3239,17 @@
         <v>98</v>
       </c>
       <c r="P47">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="Q47">
+        <v>90</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3009,11 +3297,17 @@
         <v>121</v>
       </c>
       <c r="P48">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="Q48">
+        <v>115</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3061,17 +3355,23 @@
         <v>120</v>
       </c>
       <c r="P49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="Q49">
+        <v>115</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C50">
         <v>135</v>
@@ -3113,17 +3413,23 @@
         <v>135</v>
       </c>
       <c r="P50">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="Q50">
+        <v>124</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51">
         <v>109</v>
@@ -3165,11 +3471,17 @@
         <v>94</v>
       </c>
       <c r="P51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="Q51">
+        <v>94</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3217,11 +3529,17 @@
         <v>122</v>
       </c>
       <c r="P52">
+        <v>122</v>
+      </c>
+      <c r="Q52">
+        <v>123</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3269,17 +3587,23 @@
         <v>119</v>
       </c>
       <c r="P53">
+        <v>119</v>
+      </c>
+      <c r="Q53">
+        <v>119</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C54">
         <v>195</v>
@@ -3321,17 +3645,23 @@
         <v>171</v>
       </c>
       <c r="P54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="Q54">
+        <v>168</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C55">
         <v>157</v>
@@ -3373,11 +3703,17 @@
         <v>150</v>
       </c>
       <c r="P55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="Q55">
+        <v>141</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3425,17 +3761,23 @@
         <v>102</v>
       </c>
       <c r="P56">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="Q56">
+        <v>105</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C57">
         <v>121</v>
@@ -3477,11 +3819,17 @@
         <v>113</v>
       </c>
       <c r="P57">
+        <v>111</v>
+      </c>
+      <c r="Q57">
+        <v>110</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3529,17 +3877,23 @@
         <v>111</v>
       </c>
       <c r="P58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="Q58">
+        <v>111</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C59">
         <v>141</v>
@@ -3581,11 +3935,17 @@
         <v>121</v>
       </c>
       <c r="P59">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="Q59">
+        <v>124</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3633,11 +3993,17 @@
         <v>131</v>
       </c>
       <c r="P60">
+        <v>131</v>
+      </c>
+      <c r="Q60">
+        <v>131</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C61">
         <v>93.396551724137893</v>
       </c>
@@ -3646,7 +4012,7 @@
         <v>92.068965517241381</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:P61" si="2">AVERAGE(E3:E60)</f>
+        <f t="shared" ref="E61:R61" si="2">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
       <c r="F61">
@@ -3687,17 +4053,23 @@
         <v>87.465517241379303</v>
       </c>
       <c r="P61">
+        <v>85.758620689655103</v>
+      </c>
+      <c r="Q61">
+        <v>85.379310344827502</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="2"/>
-        <v>2.2413793103448274</v>
+        <v>1.103448275862069</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:O60 C62:O1048576 C61:P61">
+  <conditionalFormatting sqref="C1:Q60 C62:Q1048576 C61:R61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:O4">
+  <conditionalFormatting sqref="C4:Q4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>

--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z\GitHub\joelverhagen\FactorioTools\src\PumpjackPipeOptimizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE764A9-1E30-4127-B4E1-16DC64938485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F4181-E367-475E-91B3-49A3E0426773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>FBE</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>9d8a0295d946bdc2c57a606ba1376d2a8734b586</t>
+  </si>
+  <si>
+    <t>7ae29626ae5ea2d028f2c907201cc83e6eb5274a</t>
+  </si>
+  <si>
+    <t>Try not using FLUTE at all, just use MST on Delaunator (spoiler: not as good, but still great)</t>
+  </si>
+  <si>
+    <t>729e29960a27f49c1d7d57a0291cbd5936503142</t>
+  </si>
+  <si>
+    <t>Don't MST on the DL graph</t>
   </si>
 </sst>
 </file>
@@ -517,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,20 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.86328125" customWidth="1"/>
-    <col min="9" max="9" width="8.265625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -587,8 +597,14 @@
       <c r="P1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -638,13 +654,19 @@
       <c r="Q2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="R2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>MIN(C3:Q3)</f>
+        <f>MIN(C3:S3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -693,16 +715,22 @@
         <v>16</v>
       </c>
       <c r="R3">
-        <f>Q3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <f>S3-B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B60" si="0">MIN(C4:Q4)</f>
+        <f t="shared" ref="B4:B60" si="0">MIN(C4:S4)</f>
         <v>121</v>
       </c>
       <c r="C4">
@@ -751,11 +779,17 @@
         <v>121</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R60" si="1">Q4-B4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="S4">
+        <v>134</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T60" si="1">S4-B4</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -809,11 +843,17 @@
         <v>95</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="S5">
+        <v>98</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -867,17 +907,23 @@
         <v>78</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="S6">
+        <v>82</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>84</v>
@@ -925,11 +971,17 @@
         <v>84</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="S7">
+        <v>82</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -983,11 +1035,17 @@
         <v>73</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="S8">
+        <v>77</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1041,11 +1099,17 @@
         <v>90</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="S9">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1099,17 +1163,23 @@
         <v>67</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="S10">
+        <v>70</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>95</v>
@@ -1157,11 +1227,17 @@
         <v>88</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="S11">
+        <v>86</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1215,17 +1291,23 @@
         <v>103</v>
       </c>
       <c r="R12">
+        <v>104</v>
+      </c>
+      <c r="S12">
+        <v>103</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>112</v>
@@ -1273,11 +1355,17 @@
         <v>104</v>
       </c>
       <c r="R13">
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <v>102</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1331,11 +1419,17 @@
         <v>54</v>
       </c>
       <c r="R14">
+        <v>56</v>
+      </c>
+      <c r="S14">
+        <v>54</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1389,17 +1483,23 @@
         <v>76</v>
       </c>
       <c r="R15">
+        <v>80</v>
+      </c>
+      <c r="S15">
+        <v>76</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>101</v>
@@ -1447,11 +1547,17 @@
         <v>93</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="S16">
+        <v>95</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1505,11 +1611,17 @@
         <v>67</v>
       </c>
       <c r="R17">
+        <v>76</v>
+      </c>
+      <c r="S17">
+        <v>67</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1563,11 +1675,17 @@
         <v>82</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="S18">
+        <v>87</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1621,11 +1739,17 @@
         <v>29</v>
       </c>
       <c r="R19">
+        <v>28</v>
+      </c>
+      <c r="S19">
+        <v>29</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1679,11 +1803,17 @@
         <v>37</v>
       </c>
       <c r="R20">
+        <v>37</v>
+      </c>
+      <c r="S20">
+        <v>37</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1737,11 +1867,17 @@
         <v>31</v>
       </c>
       <c r="R21">
+        <v>31</v>
+      </c>
+      <c r="S21">
+        <v>31</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1795,11 +1931,17 @@
         <v>49</v>
       </c>
       <c r="R22">
+        <v>52</v>
+      </c>
+      <c r="S22">
+        <v>49</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1853,11 +1995,17 @@
         <v>14</v>
       </c>
       <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1911,11 +2059,17 @@
         <v>57</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="S24">
+        <v>59</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1969,11 +2123,17 @@
         <v>67</v>
       </c>
       <c r="R25">
+        <v>67</v>
+      </c>
+      <c r="S25">
+        <v>67</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2027,11 +2187,17 @@
         <v>29</v>
       </c>
       <c r="R26">
+        <v>29</v>
+      </c>
+      <c r="S26">
+        <v>29</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2085,11 +2251,17 @@
         <v>29</v>
       </c>
       <c r="R27">
+        <v>29</v>
+      </c>
+      <c r="S27">
+        <v>29</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2143,11 +2315,17 @@
         <v>66</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <v>71</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2201,11 +2379,17 @@
         <v>48</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="S29">
+        <v>47</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2259,11 +2443,17 @@
         <v>45</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="S30">
+        <v>44</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2317,11 +2507,17 @@
         <v>84</v>
       </c>
       <c r="R31">
+        <v>86</v>
+      </c>
+      <c r="S31">
+        <v>84</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2375,11 +2571,17 @@
         <v>58</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="S32">
+        <v>61</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2433,11 +2635,17 @@
         <v>75</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="S33">
+        <v>74</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2491,11 +2699,17 @@
         <v>58</v>
       </c>
       <c r="R34">
+        <v>58</v>
+      </c>
+      <c r="S34">
+        <v>58</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2549,17 +2763,23 @@
         <v>44</v>
       </c>
       <c r="R35">
+        <v>44</v>
+      </c>
+      <c r="S35">
+        <v>44</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>132</v>
@@ -2607,17 +2827,23 @@
         <v>130</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="S36">
+        <v>130</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C37">
         <v>156</v>
@@ -2665,11 +2891,17 @@
         <v>140</v>
       </c>
       <c r="R37">
+        <v>137</v>
+      </c>
+      <c r="S37">
+        <v>134</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2723,11 +2955,17 @@
         <v>81</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="S38">
+        <v>76</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2781,11 +3019,17 @@
         <v>95</v>
       </c>
       <c r="R39">
+        <v>95</v>
+      </c>
+      <c r="S39">
+        <v>95</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2839,11 +3083,17 @@
         <v>93</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="S40">
+        <v>88</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2897,11 +3147,17 @@
         <v>81</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="S41">
+        <v>84</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2955,17 +3211,23 @@
         <v>92</v>
       </c>
       <c r="R42">
+        <v>96</v>
+      </c>
+      <c r="S42">
+        <v>92</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>124</v>
@@ -3013,11 +3275,17 @@
         <v>118</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="S43">
+        <v>114</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3071,17 +3339,23 @@
         <v>107</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="S44">
+        <v>104</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C45">
         <v>133</v>
@@ -3129,11 +3403,17 @@
         <v>122</v>
       </c>
       <c r="R45">
+        <v>125</v>
+      </c>
+      <c r="S45">
+        <v>118</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3187,11 +3467,17 @@
         <v>112</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="S46">
+        <v>118</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3245,11 +3531,17 @@
         <v>90</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="S47">
+        <v>95</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3303,17 +3595,23 @@
         <v>115</v>
       </c>
       <c r="R48">
+        <v>115</v>
+      </c>
+      <c r="S48">
+        <v>115</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <v>120</v>
@@ -3361,11 +3659,17 @@
         <v>115</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="S49">
+        <v>117</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3419,17 +3723,23 @@
         <v>124</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="S50">
+        <v>130</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51">
         <v>109</v>
@@ -3477,11 +3787,17 @@
         <v>94</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="S51">
+        <v>89</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3535,11 +3851,17 @@
         <v>123</v>
       </c>
       <c r="R52">
+        <v>124</v>
+      </c>
+      <c r="S52">
+        <v>123</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3593,17 +3915,23 @@
         <v>119</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="S53">
+        <v>120</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54">
         <v>195</v>
@@ -3651,11 +3979,17 @@
         <v>168</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="S54">
+        <v>173</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3709,11 +4043,17 @@
         <v>141</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+      <c r="S55">
+        <v>143</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3767,11 +4107,17 @@
         <v>105</v>
       </c>
       <c r="R56">
+        <v>105</v>
+      </c>
+      <c r="S56">
+        <v>105</v>
+      </c>
+      <c r="T56">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3825,17 +4171,23 @@
         <v>110</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="S57">
+        <v>111</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>115</v>
@@ -3883,17 +4235,23 @@
         <v>111</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="S58">
+        <v>103</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C59">
         <v>141</v>
@@ -3941,11 +4299,17 @@
         <v>124</v>
       </c>
       <c r="R59">
+        <v>114</v>
+      </c>
+      <c r="S59">
+        <v>119</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -3999,11 +4363,17 @@
         <v>131</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+      <c r="S60">
+        <v>133</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>93.396551724137893</v>
       </c>
@@ -4012,7 +4382,7 @@
         <v>92.068965517241381</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:R61" si="2">AVERAGE(E3:E60)</f>
+        <f t="shared" ref="E61:T61" si="2">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
       <c r="F61">
@@ -4044,32 +4414,45 @@
         <v>88.568965517241381</v>
       </c>
       <c r="M61">
+        <f t="shared" si="2"/>
         <v>87.810344827586206</v>
       </c>
       <c r="N61">
-        <v>87.741379310344797</v>
+        <f t="shared" si="2"/>
+        <v>87.741379310344826</v>
       </c>
       <c r="O61">
-        <v>87.465517241379303</v>
+        <f t="shared" si="2"/>
+        <v>87.465517241379317</v>
       </c>
       <c r="P61">
-        <v>85.758620689655103</v>
+        <f t="shared" si="2"/>
+        <v>85.758620689655174</v>
       </c>
       <c r="Q61">
-        <v>85.379310344827502</v>
+        <f t="shared" si="2"/>
+        <v>85.379310344827587</v>
       </c>
       <c r="R61">
         <f t="shared" si="2"/>
-        <v>1.103448275862069</v>
+        <v>86.879310344827587</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>85.879310344827587</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="2"/>
+        <v>2.2241379310344827</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:Q60 C62:Q1048576 C61:R61">
+  <conditionalFormatting sqref="C1:S60 C62:S1048576 C61:T61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:Q4">
+  <conditionalFormatting sqref="C4:S4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>

--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F4181-E367-475E-91B3-49A3E0426773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8B8C4-6E83-44FC-A464-091F2B6ADABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>FBE</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Don't MST on the DL graph</t>
+  </si>
+  <si>
+    <t>Use best of 3 approaches</t>
+  </si>
+  <si>
+    <t>83a3b3b9865de14cc7a5663d1edc03060a2713fe</t>
+  </si>
+  <si>
+    <t>Update to latest FluteSharp, use d=6 LUT</t>
+  </si>
+  <si>
+    <t>a39cb7a1e8bdf1306bb4ecf136b6b1f7462282d0</t>
   </si>
 </sst>
 </file>
@@ -537,18 +549,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -603,8 +616,14 @@
       <c r="S1" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -660,13 +679,19 @@
       <c r="S2" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>MIN(C3:S3)</f>
+        <f>MIN(C3:U3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -721,16 +746,22 @@
         <v>16</v>
       </c>
       <c r="T3">
-        <f>S3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <f>U3-B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B60" si="0">MIN(C4:S4)</f>
+        <f t="shared" ref="B4:B60" si="0">MIN(C4:U4)</f>
         <v>121</v>
       </c>
       <c r="C4">
@@ -785,11 +816,17 @@
         <v>134</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T60" si="1">S4-B4</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="U4">
+        <v>121</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V60" si="1">U4-B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -849,11 +886,17 @@
         <v>98</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="U5">
+        <v>95</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -913,11 +956,17 @@
         <v>82</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="U6">
+        <v>78</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -977,11 +1026,17 @@
         <v>82</v>
       </c>
       <c r="T7">
+        <v>82</v>
+      </c>
+      <c r="U7">
+        <v>82</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1041,11 +1096,17 @@
         <v>77</v>
       </c>
       <c r="T8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="U8">
+        <v>73</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1105,11 +1166,17 @@
         <v>96</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="U9">
+        <v>90</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1169,11 +1236,17 @@
         <v>70</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="U10">
+        <v>66</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1233,11 +1306,17 @@
         <v>86</v>
       </c>
       <c r="T11">
+        <v>86</v>
+      </c>
+      <c r="U11">
+        <v>86</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1297,11 +1376,17 @@
         <v>103</v>
       </c>
       <c r="T12">
+        <v>103</v>
+      </c>
+      <c r="U12">
+        <v>103</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1361,11 +1446,17 @@
         <v>102</v>
       </c>
       <c r="T13">
+        <v>102</v>
+      </c>
+      <c r="U13">
+        <v>102</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1425,11 +1516,17 @@
         <v>54</v>
       </c>
       <c r="T14">
+        <v>54</v>
+      </c>
+      <c r="U14">
+        <v>54</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1489,11 +1586,17 @@
         <v>76</v>
       </c>
       <c r="T15">
+        <v>76</v>
+      </c>
+      <c r="U15">
+        <v>76</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1553,11 +1656,17 @@
         <v>95</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="U16">
+        <v>92</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1617,11 +1726,17 @@
         <v>67</v>
       </c>
       <c r="T17">
+        <v>67</v>
+      </c>
+      <c r="U17">
+        <v>67</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1681,11 +1796,17 @@
         <v>87</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="U18">
+        <v>82</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1745,11 +1866,17 @@
         <v>29</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="U19">
+        <v>28</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1809,11 +1936,17 @@
         <v>37</v>
       </c>
       <c r="T20">
+        <v>37</v>
+      </c>
+      <c r="U20">
+        <v>37</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1873,11 +2006,17 @@
         <v>31</v>
       </c>
       <c r="T21">
+        <v>31</v>
+      </c>
+      <c r="U21">
+        <v>31</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1937,11 +2076,17 @@
         <v>49</v>
       </c>
       <c r="T22">
+        <v>49</v>
+      </c>
+      <c r="U22">
+        <v>49</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2001,11 +2146,17 @@
         <v>14</v>
       </c>
       <c r="T23">
+        <v>14</v>
+      </c>
+      <c r="U23">
+        <v>14</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2065,11 +2216,17 @@
         <v>59</v>
       </c>
       <c r="T24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="U24">
+        <v>57</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2129,11 +2286,17 @@
         <v>67</v>
       </c>
       <c r="T25">
+        <v>67</v>
+      </c>
+      <c r="U25">
+        <v>67</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2193,11 +2356,17 @@
         <v>29</v>
       </c>
       <c r="T26">
+        <v>29</v>
+      </c>
+      <c r="U26">
+        <v>29</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2257,11 +2426,17 @@
         <v>29</v>
       </c>
       <c r="T27">
+        <v>29</v>
+      </c>
+      <c r="U27">
+        <v>29</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2321,11 +2496,17 @@
         <v>71</v>
       </c>
       <c r="T28">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="U28">
+        <v>66</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2385,11 +2566,17 @@
         <v>47</v>
       </c>
       <c r="T29">
+        <v>47</v>
+      </c>
+      <c r="U29">
+        <v>47</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2449,11 +2636,17 @@
         <v>44</v>
       </c>
       <c r="T30">
+        <v>44</v>
+      </c>
+      <c r="U30">
+        <v>44</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2513,11 +2706,17 @@
         <v>84</v>
       </c>
       <c r="T31">
+        <v>84</v>
+      </c>
+      <c r="U31">
+        <v>84</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2577,11 +2776,17 @@
         <v>61</v>
       </c>
       <c r="T32">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="U32">
+        <v>58</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2641,11 +2846,17 @@
         <v>74</v>
       </c>
       <c r="T33">
+        <v>74</v>
+      </c>
+      <c r="U33">
+        <v>74</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2705,11 +2916,17 @@
         <v>58</v>
       </c>
       <c r="T34">
+        <v>58</v>
+      </c>
+      <c r="U34">
+        <v>58</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2769,11 +2986,17 @@
         <v>44</v>
       </c>
       <c r="T35">
+        <v>44</v>
+      </c>
+      <c r="U35">
+        <v>44</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2833,11 +3056,17 @@
         <v>130</v>
       </c>
       <c r="T36">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="U36">
+        <v>127</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2897,11 +3126,17 @@
         <v>134</v>
       </c>
       <c r="T37">
+        <v>134</v>
+      </c>
+      <c r="U37">
+        <v>134</v>
+      </c>
+      <c r="V37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2961,11 +3196,17 @@
         <v>76</v>
       </c>
       <c r="T38">
+        <v>76</v>
+      </c>
+      <c r="U38">
+        <v>76</v>
+      </c>
+      <c r="V38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -3025,11 +3266,17 @@
         <v>95</v>
       </c>
       <c r="T39">
+        <v>95</v>
+      </c>
+      <c r="U39">
+        <v>95</v>
+      </c>
+      <c r="V39">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3089,11 +3336,17 @@
         <v>88</v>
       </c>
       <c r="T40">
+        <v>88</v>
+      </c>
+      <c r="U40">
+        <v>88</v>
+      </c>
+      <c r="V40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3153,11 +3406,17 @@
         <v>84</v>
       </c>
       <c r="T41">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="U41">
+        <v>78</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3217,11 +3476,17 @@
         <v>92</v>
       </c>
       <c r="T42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="U42">
+        <v>91</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3281,11 +3546,17 @@
         <v>114</v>
       </c>
       <c r="T43">
+        <v>114</v>
+      </c>
+      <c r="U43">
+        <v>114</v>
+      </c>
+      <c r="V43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3345,11 +3616,17 @@
         <v>104</v>
       </c>
       <c r="T44">
+        <v>104</v>
+      </c>
+      <c r="U44">
+        <v>104</v>
+      </c>
+      <c r="V44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3409,11 +3686,17 @@
         <v>118</v>
       </c>
       <c r="T45">
+        <v>118</v>
+      </c>
+      <c r="U45">
+        <v>118</v>
+      </c>
+      <c r="V45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3473,11 +3756,17 @@
         <v>118</v>
       </c>
       <c r="T46">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="U46">
+        <v>112</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3537,11 +3826,17 @@
         <v>95</v>
       </c>
       <c r="T47">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="U47">
+        <v>90</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3601,11 +3896,17 @@
         <v>115</v>
       </c>
       <c r="T48">
+        <v>115</v>
+      </c>
+      <c r="U48">
+        <v>115</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3665,11 +3966,17 @@
         <v>117</v>
       </c>
       <c r="T49">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="U49">
+        <v>112</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3729,11 +4036,17 @@
         <v>130</v>
       </c>
       <c r="T50">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="U50">
+        <v>124</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3793,11 +4106,17 @@
         <v>89</v>
       </c>
       <c r="T51">
+        <v>89</v>
+      </c>
+      <c r="U51">
+        <v>89</v>
+      </c>
+      <c r="V51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3857,11 +4176,17 @@
         <v>123</v>
       </c>
       <c r="T52">
+        <v>123</v>
+      </c>
+      <c r="U52">
+        <v>123</v>
+      </c>
+      <c r="V52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3921,11 +4246,17 @@
         <v>120</v>
       </c>
       <c r="T53">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="U53">
+        <v>119</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3985,11 +4316,17 @@
         <v>173</v>
       </c>
       <c r="T54">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="U54">
+        <v>167</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4049,11 +4386,17 @@
         <v>143</v>
       </c>
       <c r="T55">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="U55">
+        <v>141</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4113,11 +4456,17 @@
         <v>105</v>
       </c>
       <c r="T56">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="U56">
+        <v>103</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4177,11 +4526,17 @@
         <v>111</v>
       </c>
       <c r="T57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="U57">
+        <v>110</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4241,11 +4596,17 @@
         <v>103</v>
       </c>
       <c r="T58">
+        <v>103</v>
+      </c>
+      <c r="U58">
+        <v>103</v>
+      </c>
+      <c r="V58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4305,11 +4666,17 @@
         <v>119</v>
       </c>
       <c r="T59">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="U59">
+        <v>114</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4369,11 +4736,17 @@
         <v>133</v>
       </c>
       <c r="T60">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="U60">
+        <v>131</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>93.396551724137893</v>
       </c>
@@ -4382,7 +4755,7 @@
         <v>92.068965517241381</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:T61" si="2">AVERAGE(E3:E60)</f>
+        <f t="shared" ref="E61:V61" si="2">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
       <c r="F61">
@@ -4443,16 +4816,24 @@
       </c>
       <c r="T61">
         <f t="shared" si="2"/>
-        <v>2.2241379310344827</v>
+        <v>84.15517241379311</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>84.08620689655173</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>0.43103448275862066</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:S60 C62:S1048576 C61:T61">
+  <conditionalFormatting sqref="C1:U60 C62:U1048576 C61:V61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:S4">
+  <conditionalFormatting sqref="C4:U4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>

--- a/src/PumpjackPipeOptimizer/Comparison.xlsx
+++ b/src/PumpjackPipeOptimizer/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joelv\Desktop\PumpjackPipeOptimizer\src\PumpjackPipeOptimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B8B8C4-6E83-44FC-A464-091F2B6ADABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A34A3-B957-43EE-A637-4F2DEC8824A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F3EEF332-D963-44B3-89AD-4C5E1973BCE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>FBE</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>a39cb7a1e8bdf1306bb4ecf136b6b1f7462282d0</t>
+  </si>
+  <si>
+    <t>7c18430206499ece8211e23ef21f6dafbacfb042</t>
+  </si>
+  <si>
+    <t>Add FBE strategy</t>
   </si>
 </sst>
 </file>
@@ -549,19 +555,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0EBF3A-B501-4205-AA83-0ECFC9C1E5B1}">
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -622,8 +629,11 @@
       <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>20</v>
@@ -685,13 +695,16 @@
       <c r="U2" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
-        <f>MIN(C3:U3)</f>
+        <f>MIN(C3:V3)</f>
         <v>16</v>
       </c>
       <c r="C3">
@@ -752,16 +765,19 @@
         <v>16</v>
       </c>
       <c r="V3">
-        <f>U3-B3</f>
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <f>V3-B3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B60" si="0">MIN(C4:U4)</f>
+        <f t="shared" ref="B4:B60" si="0">MIN(C4:V4)</f>
         <v>121</v>
       </c>
       <c r="C4">
@@ -822,11 +838,14 @@
         <v>121</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V60" si="1">U4-B4</f>
+        <v>121</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W60" si="1">V4-B4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -892,11 +911,14 @@
         <v>95</v>
       </c>
       <c r="V5">
+        <v>95</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -962,11 +984,14 @@
         <v>78</v>
       </c>
       <c r="V6">
+        <v>78</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1032,11 +1057,14 @@
         <v>82</v>
       </c>
       <c r="V7">
+        <v>82</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1102,11 +1130,14 @@
         <v>73</v>
       </c>
       <c r="V8">
+        <v>73</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1172,11 +1203,14 @@
         <v>90</v>
       </c>
       <c r="V9">
+        <v>90</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1242,11 +1276,14 @@
         <v>66</v>
       </c>
       <c r="V10">
+        <v>66</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1312,11 +1349,14 @@
         <v>86</v>
       </c>
       <c r="V11">
+        <v>86</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1382,11 +1422,14 @@
         <v>103</v>
       </c>
       <c r="V12">
+        <v>103</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1452,11 +1495,14 @@
         <v>102</v>
       </c>
       <c r="V13">
+        <v>102</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1522,11 +1568,14 @@
         <v>54</v>
       </c>
       <c r="V14">
+        <v>54</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1592,11 +1641,14 @@
         <v>76</v>
       </c>
       <c r="V15">
+        <v>76</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1662,11 +1714,14 @@
         <v>92</v>
       </c>
       <c r="V16">
+        <v>92</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1732,11 +1787,14 @@
         <v>67</v>
       </c>
       <c r="V17">
+        <v>67</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1802,11 +1860,14 @@
         <v>82</v>
       </c>
       <c r="V18">
+        <v>82</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1872,11 +1933,14 @@
         <v>28</v>
       </c>
       <c r="V19">
+        <v>28</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1942,11 +2006,14 @@
         <v>37</v>
       </c>
       <c r="V20">
+        <v>37</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2012,11 +2079,14 @@
         <v>31</v>
       </c>
       <c r="V21">
+        <v>31</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2082,11 +2152,14 @@
         <v>49</v>
       </c>
       <c r="V22">
+        <v>49</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2152,11 +2225,14 @@
         <v>14</v>
       </c>
       <c r="V23">
+        <v>14</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2222,11 +2298,14 @@
         <v>57</v>
       </c>
       <c r="V24">
+        <v>57</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2292,11 +2371,14 @@
         <v>67</v>
       </c>
       <c r="V25">
+        <v>67</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2362,11 +2444,14 @@
         <v>29</v>
       </c>
       <c r="V26">
+        <v>29</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2432,11 +2517,14 @@
         <v>29</v>
       </c>
       <c r="V27">
+        <v>29</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2502,11 +2590,14 @@
         <v>66</v>
       </c>
       <c r="V28">
+        <v>66</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2572,11 +2663,14 @@
         <v>47</v>
       </c>
       <c r="V29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2642,11 +2736,14 @@
         <v>44</v>
       </c>
       <c r="V30">
+        <v>44</v>
+      </c>
+      <c r="W30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2712,11 +2809,14 @@
         <v>84</v>
       </c>
       <c r="V31">
+        <v>84</v>
+      </c>
+      <c r="W31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2782,11 +2882,14 @@
         <v>58</v>
       </c>
       <c r="V32">
+        <v>58</v>
+      </c>
+      <c r="W32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2852,17 +2955,20 @@
         <v>74</v>
       </c>
       <c r="V33">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>58</v>
@@ -2922,11 +3028,14 @@
         <v>58</v>
       </c>
       <c r="V34">
+        <v>55</v>
+      </c>
+      <c r="W34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2992,11 +3101,14 @@
         <v>44</v>
       </c>
       <c r="V35">
+        <v>44</v>
+      </c>
+      <c r="W35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3062,11 +3174,14 @@
         <v>127</v>
       </c>
       <c r="V36">
+        <v>127</v>
+      </c>
+      <c r="W36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -3132,11 +3247,14 @@
         <v>134</v>
       </c>
       <c r="V37">
+        <v>134</v>
+      </c>
+      <c r="W37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -3202,17 +3320,20 @@
         <v>76</v>
       </c>
       <c r="V38">
+        <v>76</v>
+      </c>
+      <c r="W38">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>110</v>
@@ -3272,11 +3393,14 @@
         <v>95</v>
       </c>
       <c r="V39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -3342,11 +3466,14 @@
         <v>88</v>
       </c>
       <c r="V40">
+        <v>88</v>
+      </c>
+      <c r="W40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3412,17 +3539,20 @@
         <v>78</v>
       </c>
       <c r="V41">
+        <v>78</v>
+      </c>
+      <c r="W41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>93</v>
@@ -3482,11 +3612,14 @@
         <v>91</v>
       </c>
       <c r="V42">
+        <v>87</v>
+      </c>
+      <c r="W42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3552,11 +3685,14 @@
         <v>114</v>
       </c>
       <c r="V43">
+        <v>114</v>
+      </c>
+      <c r="W43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3622,11 +3758,14 @@
         <v>104</v>
       </c>
       <c r="V44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3692,11 +3831,14 @@
         <v>118</v>
       </c>
       <c r="V45">
+        <v>118</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3762,11 +3904,14 @@
         <v>112</v>
       </c>
       <c r="V46">
+        <v>112</v>
+      </c>
+      <c r="W46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3832,11 +3977,14 @@
         <v>90</v>
       </c>
       <c r="V47">
+        <v>90</v>
+      </c>
+      <c r="W47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3902,11 +4050,14 @@
         <v>115</v>
       </c>
       <c r="V48">
+        <v>115</v>
+      </c>
+      <c r="W48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3972,11 +4123,14 @@
         <v>112</v>
       </c>
       <c r="V49">
+        <v>112</v>
+      </c>
+      <c r="W49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -4042,17 +4196,20 @@
         <v>124</v>
       </c>
       <c r="V50">
+        <v>124</v>
+      </c>
+      <c r="W50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>109</v>
@@ -4112,11 +4269,14 @@
         <v>89</v>
       </c>
       <c r="V51">
+        <v>86</v>
+      </c>
+      <c r="W51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -4182,11 +4342,14 @@
         <v>123</v>
       </c>
       <c r="V52">
+        <v>123</v>
+      </c>
+      <c r="W52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -4252,11 +4415,14 @@
         <v>119</v>
       </c>
       <c r="V53">
+        <v>119</v>
+      </c>
+      <c r="W53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -4322,11 +4488,14 @@
         <v>167</v>
       </c>
       <c r="V54">
+        <v>167</v>
+      </c>
+      <c r="W54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -4392,11 +4561,14 @@
         <v>141</v>
       </c>
       <c r="V55">
+        <v>141</v>
+      </c>
+      <c r="W55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -4462,11 +4634,14 @@
         <v>103</v>
       </c>
       <c r="V56">
+        <v>103</v>
+      </c>
+      <c r="W56">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -4532,11 +4707,14 @@
         <v>110</v>
       </c>
       <c r="V57">
+        <v>110</v>
+      </c>
+      <c r="W57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -4602,11 +4780,14 @@
         <v>103</v>
       </c>
       <c r="V58">
+        <v>103</v>
+      </c>
+      <c r="W58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4672,11 +4853,14 @@
         <v>114</v>
       </c>
       <c r="V59">
+        <v>114</v>
+      </c>
+      <c r="W59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4742,11 +4926,14 @@
         <v>131</v>
       </c>
       <c r="V60">
+        <v>131</v>
+      </c>
+      <c r="W60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>93.396551724137893</v>
       </c>
@@ -4755,7 +4942,7 @@
         <v>92.068965517241381</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:V61" si="2">AVERAGE(E3:E60)</f>
+        <f t="shared" ref="E61:W61" si="2">AVERAGE(E3:E60)</f>
         <v>92.793103448275858</v>
       </c>
       <c r="F61">
@@ -4824,16 +5011,20 @@
       </c>
       <c r="V61">
         <f t="shared" si="2"/>
-        <v>0.43103448275862066</v>
+        <v>83.758620689655174</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>0.31034482758620691</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:U60 C62:U1048576 C61:V61">
+  <conditionalFormatting sqref="C1:V60 C62:V1048576 C61:W61">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>INDIRECT(ADDRESS(ROW(), 2)) = INDIRECT(ADDRESS(ROW(), COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:U4">
+  <conditionalFormatting sqref="C4:V4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
